--- a/results/LSTMAttentionModel/AAPL.O_pre.xlsx
+++ b/results/LSTMAttentionModel/AAPL.O_pre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD70"/>
+  <dimension ref="A1:AB70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,80 +506,70 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>区间最高收盘价</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>区间最低收盘价</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
           <t>区间振幅</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>区间日均换手率</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>区间平均PE</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>区间平均PB</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>区间平均PS</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>市现率PCF</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>板块涨跌幅</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>板块日均换手率</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>板块PE</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>板块PB</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>板块PS</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>板块PCF</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>预测股价</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>MAPE</t>
         </is>
@@ -629,52 +619,46 @@
         <v>5.36957836151123</v>
       </c>
       <c r="O2" t="n">
-        <v>5.709105014801025</v>
+        <v>26.27766609191895</v>
       </c>
       <c r="P2" t="n">
-        <v>4.869389533996582</v>
+        <v>3.735374927520752</v>
       </c>
       <c r="Q2" t="n">
-        <v>26.27766609191895</v>
+        <v>36.21364593505859</v>
       </c>
       <c r="R2" t="n">
-        <v>3.735374927520752</v>
+        <v>8.718449592590332</v>
       </c>
       <c r="S2" t="n">
-        <v>36.21364593505859</v>
+        <v>5.476322650909424</v>
       </c>
       <c r="T2" t="n">
-        <v>8.718449592590332</v>
+        <v>21.04983520507812</v>
       </c>
       <c r="U2" t="n">
-        <v>5.476322650909424</v>
+        <v>-5.047659873962402</v>
       </c>
       <c r="V2" t="n">
-        <v>21.04983520507812</v>
+        <v>1.819193840026855</v>
       </c>
       <c r="W2" t="n">
-        <v>-5.047659873962402</v>
+        <v>16.66651916503906</v>
       </c>
       <c r="X2" t="n">
-        <v>1.819193840026855</v>
+        <v>3.08692193031311</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.66651916503906</v>
+        <v>2.49584436416626</v>
       </c>
       <c r="Z2" t="n">
-        <v>3.08692193031311</v>
+        <v>44.03197860717773</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.49584436416626</v>
+        <v>5.441940307617188</v>
       </c>
       <c r="AB2" t="n">
-        <v>44.03197860717773</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>4.992751598358154</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.1706348210573196</v>
+        <v>0.2390922904014587</v>
       </c>
     </row>
     <row r="3">
@@ -721,52 +705,46 @@
         <v>4.140814304351807</v>
       </c>
       <c r="O3" t="n">
-        <v>5.389328002929688</v>
+        <v>58.91247940063477</v>
       </c>
       <c r="P3" t="n">
-        <v>2.667013883590698</v>
+        <v>4.701272010803223</v>
       </c>
       <c r="Q3" t="n">
-        <v>58.91247940063477</v>
+        <v>26.44601821899414</v>
       </c>
       <c r="R3" t="n">
-        <v>4.701272010803223</v>
+        <v>6.201164722442627</v>
       </c>
       <c r="S3" t="n">
-        <v>26.44601821899414</v>
+        <v>3.951162099838257</v>
       </c>
       <c r="T3" t="n">
-        <v>6.201164722442627</v>
+        <v>10.28167057037354</v>
       </c>
       <c r="U3" t="n">
-        <v>3.951162099838257</v>
+        <v>-20.69004821777344</v>
       </c>
       <c r="V3" t="n">
-        <v>10.28167057037354</v>
+        <v>1.833656430244446</v>
       </c>
       <c r="W3" t="n">
-        <v>-20.69004821777344</v>
+        <v>13.84043407440186</v>
       </c>
       <c r="X3" t="n">
-        <v>1.833656430244446</v>
+        <v>2.18242883682251</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.84043407440186</v>
+        <v>1.616702079772949</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.18242883682251</v>
+        <v>29.77334785461426</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.616702079772949</v>
+        <v>3.986872673034668</v>
       </c>
       <c r="AB3" t="n">
-        <v>29.77334785461426</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>3.176593780517578</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0.135549396276474</v>
+        <v>0.3112374842166901</v>
       </c>
     </row>
     <row r="4">
@@ -813,52 +791,46 @@
         <v>2.746008396148682</v>
       </c>
       <c r="O4" t="n">
-        <v>3.335721015930176</v>
+        <v>31.40426254272461</v>
       </c>
       <c r="P4" t="n">
-        <v>2.350242137908936</v>
+        <v>4.210081100463867</v>
       </c>
       <c r="Q4" t="n">
-        <v>31.40426254272461</v>
+        <v>16.74942779541016</v>
       </c>
       <c r="R4" t="n">
-        <v>4.210081100463867</v>
+        <v>3.844816446304321</v>
       </c>
       <c r="S4" t="n">
-        <v>16.74942779541016</v>
+        <v>2.492370843887329</v>
       </c>
       <c r="T4" t="n">
-        <v>3.844816446304321</v>
+        <v>7.321980953216553</v>
       </c>
       <c r="U4" t="n">
-        <v>2.492370843887329</v>
+        <v>-14.48737049102783</v>
       </c>
       <c r="V4" t="n">
-        <v>7.321980953216553</v>
+        <v>1.60993504524231</v>
       </c>
       <c r="W4" t="n">
-        <v>-14.48737049102783</v>
+        <v>10.11098575592041</v>
       </c>
       <c r="X4" t="n">
-        <v>1.60993504524231</v>
+        <v>1.709287524223328</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.11098575592041</v>
+        <v>1.430145621299744</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.709287524223328</v>
+        <v>25.37608909606934</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.430145621299744</v>
+        <v>2.63586950302124</v>
       </c>
       <c r="AB4" t="n">
-        <v>25.37608909606934</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>2.510300874710083</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0.2091866582632065</v>
+        <v>0.1515829265117645</v>
       </c>
     </row>
     <row r="5">
@@ -905,52 +877,46 @@
         <v>3.035422325134277</v>
       </c>
       <c r="O5" t="n">
-        <v>3.768802642822266</v>
+        <v>50.7808952331543</v>
       </c>
       <c r="P5" t="n">
-        <v>2.497808456420898</v>
+        <v>2.728350162506104</v>
       </c>
       <c r="Q5" t="n">
-        <v>50.7808952331543</v>
+        <v>18.53980255126953</v>
       </c>
       <c r="R5" t="n">
-        <v>2.728350162506104</v>
+        <v>3.929487228393555</v>
       </c>
       <c r="S5" t="n">
-        <v>18.53980255126953</v>
+        <v>2.726825475692749</v>
       </c>
       <c r="T5" t="n">
-        <v>3.929487228393555</v>
+        <v>10.74318790435791</v>
       </c>
       <c r="U5" t="n">
-        <v>2.726825475692749</v>
+        <v>25.12178421020508</v>
       </c>
       <c r="V5" t="n">
-        <v>10.74318790435791</v>
+        <v>1.623918175697327</v>
       </c>
       <c r="W5" t="n">
-        <v>25.12178421020508</v>
+        <v>16.68349075317383</v>
       </c>
       <c r="X5" t="n">
-        <v>1.623918175697327</v>
+        <v>2.016337156295776</v>
       </c>
       <c r="Y5" t="n">
-        <v>16.68349075317383</v>
+        <v>1.907207250595093</v>
       </c>
       <c r="Z5" t="n">
-        <v>2.016337156295776</v>
+        <v>17.57087898254395</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.907207250595093</v>
+        <v>3.042696237564087</v>
       </c>
       <c r="AB5" t="n">
-        <v>17.57087898254395</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>3.699494361877441</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0.09975636750459671</v>
+        <v>0.3371503949165344</v>
       </c>
     </row>
     <row r="6">
@@ -997,52 +963,46 @@
         <v>4.06854248046875</v>
       </c>
       <c r="O6" t="n">
-        <v>4.710702896118164</v>
+        <v>32.3841667175293</v>
       </c>
       <c r="P6" t="n">
-        <v>3.591182231903076</v>
+        <v>2.122552394866943</v>
       </c>
       <c r="Q6" t="n">
-        <v>32.3841667175293</v>
+        <v>24.09318733215332</v>
       </c>
       <c r="R6" t="n">
-        <v>2.122552394866943</v>
+        <v>4.970247745513916</v>
       </c>
       <c r="S6" t="n">
-        <v>24.09318733215332</v>
+        <v>3.589038133621216</v>
       </c>
       <c r="T6" t="n">
-        <v>4.970247745513916</v>
+        <v>12.37749671936035</v>
       </c>
       <c r="U6" t="n">
-        <v>3.589038133621216</v>
+        <v>25.0733642578125</v>
       </c>
       <c r="V6" t="n">
-        <v>12.37749671936035</v>
+        <v>1.52392566204071</v>
       </c>
       <c r="W6" t="n">
-        <v>25.0733642578125</v>
+        <v>20.85316467285156</v>
       </c>
       <c r="X6" t="n">
-        <v>1.52392566204071</v>
+        <v>2.622077465057373</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.85316467285156</v>
+        <v>2.14692497253418</v>
       </c>
       <c r="Z6" t="n">
-        <v>2.622077465057373</v>
+        <v>22.55112838745117</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.14692497253418</v>
+        <v>4.354167461395264</v>
       </c>
       <c r="AB6" t="n">
-        <v>22.55112838745117</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>4.801587104797363</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0.1018770411610603</v>
+        <v>0.2151022404432297</v>
       </c>
     </row>
     <row r="7">
@@ -1089,52 +1049,46 @@
         <v>5.290758609771729</v>
       </c>
       <c r="O7" t="n">
-        <v>6.167131900787354</v>
+        <v>35.08019256591797</v>
       </c>
       <c r="P7" t="n">
-        <v>4.710702896118164</v>
+        <v>1.898627758026123</v>
       </c>
       <c r="Q7" t="n">
-        <v>35.08019256591797</v>
+        <v>30.49145889282227</v>
       </c>
       <c r="R7" t="n">
-        <v>1.898627758026123</v>
+        <v>6.097504138946533</v>
       </c>
       <c r="S7" t="n">
-        <v>30.49145889282227</v>
+        <v>4.568397045135498</v>
       </c>
       <c r="T7" t="n">
-        <v>6.097504138946533</v>
+        <v>17.49846458435059</v>
       </c>
       <c r="U7" t="n">
-        <v>4.568397045135498</v>
+        <v>16.09353637695312</v>
       </c>
       <c r="V7" t="n">
-        <v>17.49846458435059</v>
+        <v>1.41222882270813</v>
       </c>
       <c r="W7" t="n">
-        <v>16.09353637695312</v>
+        <v>24.5084285736084</v>
       </c>
       <c r="X7" t="n">
-        <v>1.41222882270813</v>
+        <v>2.835010051727295</v>
       </c>
       <c r="Y7" t="n">
-        <v>24.5084285736084</v>
+        <v>2.455844163894653</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.835010051727295</v>
+        <v>22.64133644104004</v>
       </c>
       <c r="AA7" t="n">
-        <v>2.455844163894653</v>
+        <v>5.777032375335693</v>
       </c>
       <c r="AB7" t="n">
-        <v>22.64133644104004</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>6.086318016052246</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>0.004281908739358187</v>
+        <v>0.04902596399188042</v>
       </c>
     </row>
     <row r="8">
@@ -1181,52 +1135,46 @@
         <v>6.060256958007812</v>
       </c>
       <c r="O8" t="n">
-        <v>6.462865352630615</v>
+        <v>14.82615566253662</v>
       </c>
       <c r="P8" t="n">
-        <v>5.665225982666016</v>
+        <v>2.070089101791382</v>
       </c>
       <c r="Q8" t="n">
-        <v>14.82615566253662</v>
+        <v>31.75452423095703</v>
       </c>
       <c r="R8" t="n">
-        <v>2.070089101791382</v>
+        <v>6.501673698425293</v>
       </c>
       <c r="S8" t="n">
-        <v>31.75452423095703</v>
+        <v>4.963188648223877</v>
       </c>
       <c r="T8" t="n">
-        <v>6.501673698425293</v>
+        <v>15.34305191040039</v>
       </c>
       <c r="U8" t="n">
-        <v>4.963188648223877</v>
+        <v>4.018238544464111</v>
       </c>
       <c r="V8" t="n">
-        <v>15.34305191040039</v>
+        <v>1.360699534416199</v>
       </c>
       <c r="W8" t="n">
-        <v>4.018238544464111</v>
+        <v>28.65190696716309</v>
       </c>
       <c r="X8" t="n">
-        <v>1.360699534416199</v>
+        <v>2.972814798355103</v>
       </c>
       <c r="Y8" t="n">
-        <v>28.65190696716309</v>
+        <v>2.755944490432739</v>
       </c>
       <c r="Z8" t="n">
-        <v>2.972814798355103</v>
+        <v>25.83882331848145</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.755944490432739</v>
+        <v>6.995014667510986</v>
       </c>
       <c r="AB8" t="n">
-        <v>25.83882331848145</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>6.46595573425293</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0.01474245171993971</v>
+        <v>0.06200628727674484</v>
       </c>
     </row>
     <row r="9">
@@ -1273,52 +1221,46 @@
         <v>6.561279773712158</v>
       </c>
       <c r="O9" t="n">
-        <v>7.790662288665771</v>
+        <v>35.39823150634766</v>
       </c>
       <c r="P9" t="n">
-        <v>5.771918296813965</v>
+        <v>2.435397624969482</v>
       </c>
       <c r="Q9" t="n">
-        <v>35.39823150634766</v>
+        <v>28.94486045837402</v>
       </c>
       <c r="R9" t="n">
-        <v>2.435397624969482</v>
+        <v>5.533821105957031</v>
       </c>
       <c r="S9" t="n">
-        <v>28.94486045837402</v>
+        <v>4.905903339385986</v>
       </c>
       <c r="T9" t="n">
-        <v>5.533821105957031</v>
+        <v>17.48381996154785</v>
       </c>
       <c r="U9" t="n">
-        <v>4.905903339385986</v>
+        <v>14.27192306518555</v>
       </c>
       <c r="V9" t="n">
-        <v>17.48381996154785</v>
+        <v>1.405836939811707</v>
       </c>
       <c r="W9" t="n">
-        <v>14.27192306518555</v>
+        <v>27.75752258300781</v>
       </c>
       <c r="X9" t="n">
-        <v>1.405836939811707</v>
+        <v>2.65974497795105</v>
       </c>
       <c r="Y9" t="n">
-        <v>27.75752258300781</v>
+        <v>2.35475492477417</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.65974497795105</v>
+        <v>39.32548141479492</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.35475492477417</v>
+        <v>7.381354331970215</v>
       </c>
       <c r="AB9" t="n">
-        <v>39.32548141479492</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>7.672165870666504</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0.004862614441663027</v>
+        <v>0.04445232078433037</v>
       </c>
     </row>
     <row r="10">
@@ -1365,52 +1307,46 @@
         <v>7.70947265625</v>
       </c>
       <c r="O10" t="n">
-        <v>8.237088203430176</v>
+        <v>32.60967254638672</v>
       </c>
       <c r="P10" t="n">
-        <v>7.088594913482666</v>
+        <v>3.201313734054565</v>
       </c>
       <c r="Q10" t="n">
-        <v>32.60967254638672</v>
+        <v>28.14481735229492</v>
       </c>
       <c r="R10" t="n">
-        <v>3.201313734054565</v>
+        <v>5.928718566894531</v>
       </c>
       <c r="S10" t="n">
-        <v>28.14481735229492</v>
+        <v>5.209995269775391</v>
       </c>
       <c r="T10" t="n">
-        <v>5.928718566894531</v>
+        <v>14.49658107757568</v>
       </c>
       <c r="U10" t="n">
-        <v>5.209995269775391</v>
+        <v>-9.295836448669434</v>
       </c>
       <c r="V10" t="n">
-        <v>14.49658107757568</v>
+        <v>1.654023766517639</v>
       </c>
       <c r="W10" t="n">
-        <v>-9.295836448669434</v>
+        <v>23.01450347900391</v>
       </c>
       <c r="X10" t="n">
-        <v>1.654023766517639</v>
+        <v>2.279673099517822</v>
       </c>
       <c r="Y10" t="n">
-        <v>23.01450347900391</v>
+        <v>1.962317585945129</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.279673099517822</v>
+        <v>38.72361373901367</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.962317585945129</v>
+        <v>8.366625785827637</v>
       </c>
       <c r="AB10" t="n">
-        <v>38.72361373901367</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>7.6797776222229</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0.06479156762361526</v>
+        <v>0.02262122742831707</v>
       </c>
     </row>
     <row r="11">
@@ -1457,52 +1393,46 @@
         <v>8.177362442016602</v>
       </c>
       <c r="O11" t="n">
-        <v>9.5572509765625</v>
+        <v>33.12557220458984</v>
       </c>
       <c r="P11" t="n">
-        <v>7.210915565490723</v>
+        <v>2.102333068847656</v>
       </c>
       <c r="Q11" t="n">
-        <v>33.12557220458984</v>
+        <v>25.51087951660156</v>
       </c>
       <c r="R11" t="n">
-        <v>2.102333068847656</v>
+        <v>5.763104438781738</v>
       </c>
       <c r="S11" t="n">
-        <v>25.51087951660156</v>
+        <v>4.888536930084229</v>
       </c>
       <c r="T11" t="n">
-        <v>5.763104438781738</v>
+        <v>15.18551445007324</v>
       </c>
       <c r="U11" t="n">
-        <v>4.888536930084229</v>
+        <v>16.72803497314453</v>
       </c>
       <c r="V11" t="n">
-        <v>15.18551445007324</v>
+        <v>1.505271077156067</v>
       </c>
       <c r="W11" t="n">
-        <v>16.72803497314453</v>
+        <v>23.54470443725586</v>
       </c>
       <c r="X11" t="n">
-        <v>1.505271077156067</v>
+        <v>2.748006820678711</v>
       </c>
       <c r="Y11" t="n">
-        <v>23.54470443725586</v>
+        <v>2.418158769607544</v>
       </c>
       <c r="Z11" t="n">
-        <v>2.748006820678711</v>
+        <v>45.13652420043945</v>
       </c>
       <c r="AA11" t="n">
-        <v>2.418158769607544</v>
+        <v>8.83884334564209</v>
       </c>
       <c r="AB11" t="n">
-        <v>45.13652420043945</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>9.127021789550781</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>0.05516209453344345</v>
+        <v>0.08956421911716461</v>
       </c>
     </row>
     <row r="12">
@@ -1549,52 +1479,46 @@
         <v>9.630487442016602</v>
       </c>
       <c r="O12" t="n">
-        <v>10.47330474853516</v>
+        <v>16.50381469726562</v>
       </c>
       <c r="P12" t="n">
-        <v>9.031301498413086</v>
+        <v>1.6302490234375</v>
       </c>
       <c r="Q12" t="n">
-        <v>16.50381469726562</v>
+        <v>20.93117713928223</v>
       </c>
       <c r="R12" t="n">
-        <v>1.6302490234375</v>
+        <v>6.140925884246826</v>
       </c>
       <c r="S12" t="n">
-        <v>20.93117713928223</v>
+        <v>4.497944831848145</v>
       </c>
       <c r="T12" t="n">
-        <v>6.140925884246826</v>
+        <v>13.82059764862061</v>
       </c>
       <c r="U12" t="n">
-        <v>4.497944831848145</v>
+        <v>11.36907863616943</v>
       </c>
       <c r="V12" t="n">
-        <v>13.82059764862061</v>
+        <v>1.263121366500854</v>
       </c>
       <c r="W12" t="n">
-        <v>11.36907863616943</v>
+        <v>19.12104988098145</v>
       </c>
       <c r="X12" t="n">
-        <v>1.263121366500854</v>
+        <v>3.201817989349365</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.12104988098145</v>
+        <v>2.654244661331177</v>
       </c>
       <c r="Z12" t="n">
-        <v>3.201817989349365</v>
+        <v>50.21112823486328</v>
       </c>
       <c r="AA12" t="n">
-        <v>2.654244661331177</v>
+        <v>10.10127925872803</v>
       </c>
       <c r="AB12" t="n">
-        <v>50.21112823486328</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>10.09283065795898</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>0.02679356746375561</v>
+        <v>0.02593476884067059</v>
       </c>
     </row>
     <row r="13">
@@ -1641,52 +1565,46 @@
         <v>10.36325359344482</v>
       </c>
       <c r="O13" t="n">
-        <v>10.91359901428223</v>
+        <v>13.13371467590332</v>
       </c>
       <c r="P13" t="n">
-        <v>9.819323539733887</v>
+        <v>1.940962314605713</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.13371467590332</v>
+        <v>19.05271148681641</v>
       </c>
       <c r="R13" t="n">
-        <v>1.940962314605713</v>
+        <v>5.802607536315918</v>
       </c>
       <c r="S13" t="n">
-        <v>19.05271148681641</v>
+        <v>4.157190799713135</v>
       </c>
       <c r="T13" t="n">
-        <v>5.802607536315918</v>
+        <v>12.24912071228027</v>
       </c>
       <c r="U13" t="n">
-        <v>4.157190799713135</v>
+        <v>0.207108274102211</v>
       </c>
       <c r="V13" t="n">
-        <v>12.24912071228027</v>
+        <v>2.953497648239136</v>
       </c>
       <c r="W13" t="n">
-        <v>0.207108274102211</v>
+        <v>16.58693313598633</v>
       </c>
       <c r="X13" t="n">
-        <v>2.953497648239136</v>
+        <v>2.841570377349854</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.58693313598633</v>
+        <v>2.338920116424561</v>
       </c>
       <c r="Z13" t="n">
-        <v>2.841570377349854</v>
+        <v>29.83127021789551</v>
       </c>
       <c r="AA13" t="n">
-        <v>2.338920116424561</v>
+        <v>10.53492450714111</v>
       </c>
       <c r="AB13" t="n">
-        <v>29.83127021789551</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>10.58995151519775</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0.02934529632329941</v>
+        <v>0.02427528239786625</v>
       </c>
     </row>
     <row r="14">
@@ -1733,52 +1651,46 @@
         <v>10.2791862487793</v>
       </c>
       <c r="O14" t="n">
-        <v>11.32594299316406</v>
+        <v>19.90303993225098</v>
       </c>
       <c r="P14" t="n">
-        <v>9.476705551147461</v>
+        <v>1.580748200416565</v>
       </c>
       <c r="Q14" t="n">
-        <v>19.90303993225098</v>
+        <v>16.12615013122559</v>
       </c>
       <c r="R14" t="n">
-        <v>1.580748200416565</v>
+        <v>5.134140968322754</v>
       </c>
       <c r="S14" t="n">
-        <v>16.12615013122559</v>
+        <v>3.60827374458313</v>
       </c>
       <c r="T14" t="n">
-        <v>5.134140968322754</v>
+        <v>10.63031959533691</v>
       </c>
       <c r="U14" t="n">
-        <v>3.60827374458313</v>
+        <v>4.7923583984375</v>
       </c>
       <c r="V14" t="n">
-        <v>10.63031959533691</v>
+        <v>1.245115995407104</v>
       </c>
       <c r="W14" t="n">
-        <v>4.7923583984375</v>
+        <v>16.23420906066895</v>
       </c>
       <c r="X14" t="n">
-        <v>1.245115995407104</v>
+        <v>2.479116916656494</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.23420906066895</v>
+        <v>2.232614040374756</v>
       </c>
       <c r="Z14" t="n">
-        <v>2.479116916656494</v>
+        <v>29.54406929016113</v>
       </c>
       <c r="AA14" t="n">
-        <v>2.232614040374756</v>
+        <v>10.4143705368042</v>
       </c>
       <c r="AB14" t="n">
-        <v>29.54406929016113</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>11.06481170654297</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0.05105894431471825</v>
+        <v>0.1167040094733238</v>
       </c>
     </row>
     <row r="15">
@@ -1825,52 +1737,46 @@
         <v>11.62976932525635</v>
       </c>
       <c r="O15" t="n">
-        <v>12.69010543823242</v>
+        <v>19.71107482910156</v>
       </c>
       <c r="P15" t="n">
-        <v>10.6154613494873</v>
+        <v>2.49665641784668</v>
       </c>
       <c r="Q15" t="n">
-        <v>19.71107482910156</v>
+        <v>15.1812047958374</v>
       </c>
       <c r="R15" t="n">
-        <v>2.49665641784668</v>
+        <v>5.167773723602295</v>
       </c>
       <c r="S15" t="n">
-        <v>15.1812047958374</v>
+        <v>3.573292255401611</v>
       </c>
       <c r="T15" t="n">
-        <v>5.167773723602295</v>
+        <v>10.43072986602783</v>
       </c>
       <c r="U15" t="n">
-        <v>3.573292255401611</v>
+        <v>3.304326295852661</v>
       </c>
       <c r="V15" t="n">
-        <v>10.43072986602783</v>
+        <v>1.327752470970154</v>
       </c>
       <c r="W15" t="n">
-        <v>3.304326295852661</v>
+        <v>14.98818492889404</v>
       </c>
       <c r="X15" t="n">
-        <v>1.327752470970154</v>
+        <v>2.13383150100708</v>
       </c>
       <c r="Y15" t="n">
-        <v>14.98818492889404</v>
+        <v>2.098476648330688</v>
       </c>
       <c r="Z15" t="n">
-        <v>2.13383150100708</v>
+        <v>26.87973213195801</v>
       </c>
       <c r="AA15" t="n">
-        <v>2.098476648330688</v>
+        <v>11.79712677001953</v>
       </c>
       <c r="AB15" t="n">
-        <v>26.87973213195801</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>12.45740127563477</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0.03839041292667389</v>
+        <v>0.01543000526726246</v>
       </c>
     </row>
     <row r="16">
@@ -1917,52 +1823,46 @@
         <v>11.97915649414062</v>
       </c>
       <c r="O16" t="n">
-        <v>12.89657878875732</v>
+        <v>16.20252799987793</v>
       </c>
       <c r="P16" t="n">
-        <v>10.92682266235352</v>
+        <v>1.463972091674805</v>
       </c>
       <c r="Q16" t="n">
-        <v>16.20252799987793</v>
+        <v>14.22804069519043</v>
       </c>
       <c r="R16" t="n">
-        <v>1.463972091674805</v>
+        <v>4.818870067596436</v>
       </c>
       <c r="S16" t="n">
-        <v>14.22804069519043</v>
+        <v>3.4104163646698</v>
       </c>
       <c r="T16" t="n">
-        <v>4.818870067596436</v>
+        <v>8.62354564666748</v>
       </c>
       <c r="U16" t="n">
-        <v>3.4104163646698</v>
+        <v>6.866599559783936</v>
       </c>
       <c r="V16" t="n">
-        <v>8.62354564666748</v>
+        <v>0.9006818532943726</v>
       </c>
       <c r="W16" t="n">
-        <v>6.866599559783936</v>
+        <v>16.70068359375</v>
       </c>
       <c r="X16" t="n">
-        <v>0.9006818532943726</v>
+        <v>2.303891897201538</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.70068359375</v>
+        <v>2.411696195602417</v>
       </c>
       <c r="Z16" t="n">
-        <v>2.303891897201538</v>
+        <v>25.36821365356445</v>
       </c>
       <c r="AA16" t="n">
-        <v>2.411696195602417</v>
+        <v>12.26168441772461</v>
       </c>
       <c r="AB16" t="n">
-        <v>25.36821365356445</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>12.56831169128418</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0.3048194646835327</v>
+        <v>0.3374490141868591</v>
       </c>
     </row>
     <row r="17">
@@ -2009,52 +1909,46 @@
         <v>16.39937782287598</v>
       </c>
       <c r="O17" t="n">
-        <v>19.12141418457031</v>
+        <v>52.51410293579102</v>
       </c>
       <c r="P17" t="n">
-        <v>12.63510608673096</v>
+        <v>2.578298568725586</v>
       </c>
       <c r="Q17" t="n">
-        <v>52.51410293579102</v>
+        <v>15.44080638885498</v>
       </c>
       <c r="R17" t="n">
-        <v>2.578298568725586</v>
+        <v>5.65736722946167</v>
       </c>
       <c r="S17" t="n">
-        <v>15.44080638885498</v>
+        <v>3.986410856246948</v>
       </c>
       <c r="T17" t="n">
-        <v>5.65736722946167</v>
+        <v>9.843752861022949</v>
       </c>
       <c r="U17" t="n">
-        <v>3.986410856246948</v>
+        <v>12.83097267150879</v>
       </c>
       <c r="V17" t="n">
-        <v>9.843752861022949</v>
+        <v>0.8472976684570312</v>
       </c>
       <c r="W17" t="n">
-        <v>12.83097267150879</v>
+        <v>18.92729568481445</v>
       </c>
       <c r="X17" t="n">
-        <v>0.8472976684570312</v>
+        <v>2.201842069625854</v>
       </c>
       <c r="Y17" t="n">
-        <v>18.92729568481445</v>
+        <v>2.226545333862305</v>
       </c>
       <c r="Z17" t="n">
-        <v>2.201842069625854</v>
+        <v>27.00517082214355</v>
       </c>
       <c r="AA17" t="n">
-        <v>2.226545333862305</v>
+        <v>17.23787879943848</v>
       </c>
       <c r="AB17" t="n">
-        <v>27.00517082214355</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>17.1387939453125</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0.01726249791681767</v>
+        <v>0.01141518261283636</v>
       </c>
     </row>
     <row r="18">
@@ -2101,52 +1995,46 @@
         <v>17.43465232849121</v>
       </c>
       <c r="O18" t="n">
-        <v>18.46292495727539</v>
+        <v>17.08763313293457</v>
       </c>
       <c r="P18" t="n">
-        <v>15.93235778808594</v>
+        <v>1.715055227279663</v>
       </c>
       <c r="Q18" t="n">
-        <v>17.08763313293457</v>
+        <v>14.0405216217041</v>
       </c>
       <c r="R18" t="n">
-        <v>1.715055227279663</v>
+        <v>5.286036014556885</v>
       </c>
       <c r="S18" t="n">
-        <v>14.0405216217041</v>
+        <v>3.808334350585938</v>
       </c>
       <c r="T18" t="n">
-        <v>5.286036014556885</v>
+        <v>10.77484607696533</v>
       </c>
       <c r="U18" t="n">
-        <v>3.808334350585938</v>
+        <v>-4.072647571563721</v>
       </c>
       <c r="V18" t="n">
-        <v>10.77484607696533</v>
+        <v>0.9274789094924927</v>
       </c>
       <c r="W18" t="n">
-        <v>-4.072647571563721</v>
+        <v>17.26951789855957</v>
       </c>
       <c r="X18" t="n">
-        <v>0.9274789094924927</v>
+        <v>1.864514231681824</v>
       </c>
       <c r="Y18" t="n">
-        <v>17.26951789855957</v>
+        <v>1.856360673904419</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.864514231681824</v>
+        <v>24.66205406188965</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.856360673904419</v>
+        <v>18.53134727478027</v>
       </c>
       <c r="AB18" t="n">
-        <v>24.66205406188965</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>18.25628471374512</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>0.06914511322975159</v>
+        <v>0.0532756932079792</v>
       </c>
     </row>
     <row r="19">
@@ -2193,52 +2081,46 @@
         <v>19.51861763000488</v>
       </c>
       <c r="O19" t="n">
-        <v>21.19168472290039</v>
+        <v>22.87021064758301</v>
       </c>
       <c r="P19" t="n">
-        <v>17.27758598327637</v>
+        <v>1.770308494567871</v>
       </c>
       <c r="Q19" t="n">
-        <v>22.87021064758301</v>
+        <v>15.12252712249756</v>
       </c>
       <c r="R19" t="n">
-        <v>1.770308494567871</v>
+        <v>5.429926872253418</v>
       </c>
       <c r="S19" t="n">
-        <v>15.12252712249756</v>
+        <v>4.077765464782715</v>
       </c>
       <c r="T19" t="n">
-        <v>5.429926872253418</v>
+        <v>11.23534297943115</v>
       </c>
       <c r="U19" t="n">
-        <v>4.077765464782715</v>
+        <v>0.7715702056884766</v>
       </c>
       <c r="V19" t="n">
-        <v>11.23534297943115</v>
+        <v>0.8952569365501404</v>
       </c>
       <c r="W19" t="n">
-        <v>0.7715702056884766</v>
+        <v>18.21524429321289</v>
       </c>
       <c r="X19" t="n">
-        <v>0.8952569365501404</v>
+        <v>1.963454961776733</v>
       </c>
       <c r="Y19" t="n">
-        <v>18.21524429321289</v>
+        <v>1.887281775474548</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.963454961776733</v>
+        <v>26.16182327270508</v>
       </c>
       <c r="AA19" t="n">
-        <v>1.887281775474548</v>
+        <v>21.02486228942871</v>
       </c>
       <c r="AB19" t="n">
-        <v>26.16182327270508</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>19.3929386138916</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0.1494532823562622</v>
+        <v>0.2154716551303864</v>
       </c>
     </row>
     <row r="20">
@@ -2285,52 +2167,46 @@
         <v>16.49460029602051</v>
       </c>
       <c r="O20" t="n">
-        <v>18.39785957336426</v>
+        <v>22.11517333984375</v>
       </c>
       <c r="P20" t="n">
-        <v>14.73362636566162</v>
+        <v>2.283194303512573</v>
       </c>
       <c r="Q20" t="n">
-        <v>22.11517333984375</v>
+        <v>12.24086475372314</v>
       </c>
       <c r="R20" t="n">
-        <v>2.283194303512573</v>
+        <v>4.316579818725586</v>
       </c>
       <c r="S20" t="n">
-        <v>12.24086475372314</v>
+        <v>3.261457681655884</v>
       </c>
       <c r="T20" t="n">
-        <v>4.316579818725586</v>
+        <v>8.523487091064453</v>
       </c>
       <c r="U20" t="n">
-        <v>3.261457681655884</v>
+        <v>2.544996023178101</v>
       </c>
       <c r="V20" t="n">
-        <v>8.523487091064453</v>
+        <v>0.8655732870101929</v>
       </c>
       <c r="W20" t="n">
-        <v>2.544996023178101</v>
+        <v>21.45611190795898</v>
       </c>
       <c r="X20" t="n">
-        <v>0.8655732870101929</v>
+        <v>2.15964674949646</v>
       </c>
       <c r="Y20" t="n">
-        <v>21.45611190795898</v>
+        <v>2.020870685577393</v>
       </c>
       <c r="Z20" t="n">
-        <v>2.15964674949646</v>
+        <v>28.87961769104004</v>
       </c>
       <c r="AA20" t="n">
-        <v>2.020870685577393</v>
+        <v>17.67413330078125</v>
       </c>
       <c r="AB20" t="n">
-        <v>28.87961769104004</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>16.29575347900391</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0.1711349785327911</v>
+        <v>0.235776960849762</v>
       </c>
     </row>
     <row r="21">
@@ -2377,52 +2253,46 @@
         <v>13.50697994232178</v>
       </c>
       <c r="O21" t="n">
-        <v>15.5851936340332</v>
+        <v>25.28788566589355</v>
       </c>
       <c r="P21" t="n">
-        <v>11.91030693054199</v>
+        <v>1.897894024848938</v>
       </c>
       <c r="Q21" t="n">
-        <v>25.28788566589355</v>
+        <v>9.959510803222656</v>
       </c>
       <c r="R21" t="n">
-        <v>1.897894024848938</v>
+        <v>3.259617567062378</v>
       </c>
       <c r="S21" t="n">
-        <v>9.959510803222656</v>
+        <v>2.521785736083984</v>
       </c>
       <c r="T21" t="n">
-        <v>3.259617567062378</v>
+        <v>6.90217399597168</v>
       </c>
       <c r="U21" t="n">
-        <v>2.521785736083984</v>
+        <v>0.9999461770057678</v>
       </c>
       <c r="V21" t="n">
-        <v>6.90217399597168</v>
+        <v>0.8807924389839172</v>
       </c>
       <c r="W21" t="n">
-        <v>0.9999461770057678</v>
+        <v>20.43403816223145</v>
       </c>
       <c r="X21" t="n">
-        <v>0.8807924389839172</v>
+        <v>2.160519361495972</v>
       </c>
       <c r="Y21" t="n">
-        <v>20.43403816223145</v>
+        <v>1.987677097320557</v>
       </c>
       <c r="Z21" t="n">
-        <v>2.160519361495972</v>
+        <v>30.57647132873535</v>
       </c>
       <c r="AA21" t="n">
-        <v>1.987677097320557</v>
+        <v>14.47552394866943</v>
       </c>
       <c r="AB21" t="n">
-        <v>30.57647132873535</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>13.03831481933594</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>0.01327395159751177</v>
+        <v>0.08732942491769791</v>
       </c>
     </row>
     <row r="22">
@@ -2469,52 +2339,46 @@
         <v>13.21138477325439</v>
       </c>
       <c r="O22" t="n">
-        <v>14.1461009979248</v>
+        <v>18.71740341186523</v>
       </c>
       <c r="P22" t="n">
-        <v>12.08891677856445</v>
+        <v>1.50247597694397</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.71740341186523</v>
+        <v>10.21535968780518</v>
       </c>
       <c r="R22" t="n">
-        <v>1.50247597694397</v>
+        <v>2.993249893188477</v>
       </c>
       <c r="S22" t="n">
-        <v>10.21535968780518</v>
+        <v>2.394621849060059</v>
       </c>
       <c r="T22" t="n">
-        <v>2.993249893188477</v>
+        <v>7.435333728790283</v>
       </c>
       <c r="U22" t="n">
-        <v>2.394621849060059</v>
+        <v>9.829130172729492</v>
       </c>
       <c r="V22" t="n">
-        <v>7.435333728790283</v>
+        <v>0.9377158880233765</v>
       </c>
       <c r="W22" t="n">
-        <v>9.829130172729492</v>
+        <v>21.52130508422852</v>
       </c>
       <c r="X22" t="n">
-        <v>0.9377158880233765</v>
+        <v>2.496304035186768</v>
       </c>
       <c r="Y22" t="n">
-        <v>21.52130508422852</v>
+        <v>2.188558578491211</v>
       </c>
       <c r="Z22" t="n">
-        <v>2.496304035186768</v>
+        <v>35.81851196289062</v>
       </c>
       <c r="AA22" t="n">
-        <v>2.188558578491211</v>
+        <v>14.13166046142578</v>
       </c>
       <c r="AB22" t="n">
-        <v>35.81851196289062</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>13.37695407867432</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>0.1153172105550766</v>
+        <v>0.05575329437851906</v>
       </c>
     </row>
     <row r="23">
@@ -2561,52 +2425,46 @@
         <v>14.91954708099365</v>
       </c>
       <c r="O23" t="n">
-        <v>16.43728065490723</v>
+        <v>27.68895149230957</v>
       </c>
       <c r="P23" t="n">
-        <v>12.86285495758057</v>
+        <v>1.450356006622314</v>
       </c>
       <c r="Q23" t="n">
-        <v>27.68895149230957</v>
+        <v>11.6611156463623</v>
       </c>
       <c r="R23" t="n">
-        <v>1.450356006622314</v>
+        <v>3.567288398742676</v>
       </c>
       <c r="S23" t="n">
-        <v>11.6611156463623</v>
+        <v>2.597272396087646</v>
       </c>
       <c r="T23" t="n">
-        <v>3.567288398742676</v>
+        <v>8.970125198364258</v>
       </c>
       <c r="U23" t="n">
-        <v>2.597272396087646</v>
+        <v>19.16508102416992</v>
       </c>
       <c r="V23" t="n">
-        <v>8.970125198364258</v>
+        <v>0.9091435074806213</v>
       </c>
       <c r="W23" t="n">
-        <v>19.16508102416992</v>
+        <v>22.77664947509766</v>
       </c>
       <c r="X23" t="n">
-        <v>0.9091435074806213</v>
+        <v>2.699915647506714</v>
       </c>
       <c r="Y23" t="n">
-        <v>22.77664947509766</v>
+        <v>2.268141031265259</v>
       </c>
       <c r="Z23" t="n">
-        <v>2.699915647506714</v>
+        <v>41.77789306640625</v>
       </c>
       <c r="AA23" t="n">
-        <v>2.268141031265259</v>
+        <v>15.92185306549072</v>
       </c>
       <c r="AB23" t="n">
-        <v>41.77789306640625</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>16.78728485107422</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>0.002775135450065136</v>
+        <v>0.05728094279766083</v>
       </c>
     </row>
     <row r="24">
@@ -2653,52 +2511,46 @@
         <v>16.83387184143066</v>
       </c>
       <c r="O24" t="n">
-        <v>17.71998977661133</v>
+        <v>12.15946960449219</v>
       </c>
       <c r="P24" t="n">
-        <v>15.92968368530273</v>
+        <v>1.287737846374512</v>
       </c>
       <c r="Q24" t="n">
-        <v>12.15946960449219</v>
+        <v>13.17630004882812</v>
       </c>
       <c r="R24" t="n">
-        <v>1.287737846374512</v>
+        <v>3.946864604949951</v>
       </c>
       <c r="S24" t="n">
-        <v>13.17630004882812</v>
+        <v>2.854532241821289</v>
       </c>
       <c r="T24" t="n">
-        <v>3.946864604949951</v>
+        <v>9.361288070678711</v>
       </c>
       <c r="U24" t="n">
-        <v>2.854532241821289</v>
+        <v>6.341082096099854</v>
       </c>
       <c r="V24" t="n">
-        <v>9.361288070678711</v>
+        <v>1.108751535415649</v>
       </c>
       <c r="W24" t="n">
-        <v>6.341082096099854</v>
+        <v>24.64662170410156</v>
       </c>
       <c r="X24" t="n">
-        <v>1.108751535415649</v>
+        <v>2.847905158996582</v>
       </c>
       <c r="Y24" t="n">
-        <v>24.64662170410156</v>
+        <v>2.574187278747559</v>
       </c>
       <c r="Z24" t="n">
-        <v>2.847905158996582</v>
+        <v>41.48581314086914</v>
       </c>
       <c r="AA24" t="n">
-        <v>2.574187278747559</v>
+        <v>17.99527931213379</v>
       </c>
       <c r="AB24" t="n">
-        <v>41.48581314086914</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>18.05807876586914</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>0.08602286130189896</v>
+        <v>0.08283329010009766</v>
       </c>
     </row>
     <row r="25">
@@ -2745,52 +2597,46 @@
         <v>16.50467109680176</v>
       </c>
       <c r="O25" t="n">
-        <v>17.1110782623291</v>
+        <v>11.21651077270508</v>
       </c>
       <c r="P25" t="n">
-        <v>15.5346212387085</v>
+        <v>1.185028314590454</v>
       </c>
       <c r="Q25" t="n">
-        <v>11.21651077270508</v>
+        <v>12.71604251861572</v>
       </c>
       <c r="R25" t="n">
-        <v>1.185028314590454</v>
+        <v>3.636780261993408</v>
       </c>
       <c r="S25" t="n">
-        <v>12.71604251861572</v>
+        <v>2.706657409667969</v>
       </c>
       <c r="T25" t="n">
-        <v>3.636780261993408</v>
+        <v>8.676983833312988</v>
       </c>
       <c r="U25" t="n">
-        <v>2.706657409667969</v>
+        <v>3.253169775009155</v>
       </c>
       <c r="V25" t="n">
-        <v>8.676983833312988</v>
+        <v>1.18176805973053</v>
       </c>
       <c r="W25" t="n">
-        <v>3.253169775009155</v>
+        <v>26.20271492004395</v>
       </c>
       <c r="X25" t="n">
-        <v>1.18176805973053</v>
+        <v>2.977883815765381</v>
       </c>
       <c r="Y25" t="n">
-        <v>26.20271492004395</v>
+        <v>2.383416891098022</v>
       </c>
       <c r="Z25" t="n">
-        <v>2.977883815765381</v>
+        <v>29.4829044342041</v>
       </c>
       <c r="AA25" t="n">
-        <v>2.383416891098022</v>
+        <v>17.7124195098877</v>
       </c>
       <c r="AB25" t="n">
-        <v>29.4829044342041</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>17.35006141662598</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0.1341995894908905</v>
+        <v>0.1109962984919548</v>
       </c>
     </row>
     <row r="26">
@@ -2837,52 +2683,46 @@
         <v>19.67843246459961</v>
       </c>
       <c r="O26" t="n">
-        <v>21.22907447814941</v>
+        <v>29.9128475189209</v>
       </c>
       <c r="P26" t="n">
-        <v>16.40832901000977</v>
+        <v>1.064185738563538</v>
       </c>
       <c r="Q26" t="n">
-        <v>29.9128475189209</v>
+        <v>14.34620189666748</v>
       </c>
       <c r="R26" t="n">
-        <v>1.064185738563538</v>
+        <v>4.502403259277344</v>
       </c>
       <c r="S26" t="n">
-        <v>14.34620189666748</v>
+        <v>3.073508024215698</v>
       </c>
       <c r="T26" t="n">
-        <v>4.502403259277344</v>
+        <v>10.13162899017334</v>
       </c>
       <c r="U26" t="n">
-        <v>3.073508024215698</v>
+        <v>14.84725856781006</v>
       </c>
       <c r="V26" t="n">
-        <v>10.13162899017334</v>
+        <v>0.8716258406639099</v>
       </c>
       <c r="W26" t="n">
-        <v>14.84725856781006</v>
+        <v>28.01007270812988</v>
       </c>
       <c r="X26" t="n">
-        <v>0.8716258406639099</v>
+        <v>2.888192176818848</v>
       </c>
       <c r="Y26" t="n">
-        <v>28.01007270812988</v>
+        <v>2.737391948699951</v>
       </c>
       <c r="Z26" t="n">
-        <v>2.888192176818848</v>
+        <v>30.88881683349609</v>
       </c>
       <c r="AA26" t="n">
-        <v>2.737391948699951</v>
+        <v>21.14818382263184</v>
       </c>
       <c r="AB26" t="n">
-        <v>30.88881683349609</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>21.8958625793457</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>8.754555165069178e-05</v>
+        <v>0.03526363521814346</v>
       </c>
     </row>
     <row r="27">
@@ -2929,52 +2769,46 @@
         <v>21.89394569396973</v>
       </c>
       <c r="O27" t="n">
-        <v>22.84988403320312</v>
+        <v>11.19027042388916</v>
       </c>
       <c r="P27" t="n">
-        <v>20.84829330444336</v>
+        <v>0.9779165983200073</v>
       </c>
       <c r="Q27" t="n">
-        <v>11.19027042388916</v>
+        <v>15.39508628845215</v>
       </c>
       <c r="R27" t="n">
-        <v>0.9779165983200073</v>
+        <v>4.916231155395508</v>
       </c>
       <c r="S27" t="n">
-        <v>15.39508628845215</v>
+        <v>3.331831216812134</v>
       </c>
       <c r="T27" t="n">
-        <v>4.916231155395508</v>
+        <v>10.00367736816406</v>
       </c>
       <c r="U27" t="n">
-        <v>3.331831216812134</v>
+        <v>-0.8073238730430603</v>
       </c>
       <c r="V27" t="n">
-        <v>10.00367736816406</v>
+        <v>1.010463953018188</v>
       </c>
       <c r="W27" t="n">
-        <v>-0.8073238730430603</v>
+        <v>24.77120590209961</v>
       </c>
       <c r="X27" t="n">
-        <v>1.010463953018188</v>
+        <v>2.679332971572876</v>
       </c>
       <c r="Y27" t="n">
-        <v>24.77120590209961</v>
+        <v>2.47363805770874</v>
       </c>
       <c r="Z27" t="n">
-        <v>2.679332971572876</v>
+        <v>30.00307846069336</v>
       </c>
       <c r="AA27" t="n">
-        <v>2.47363805770874</v>
+        <v>23.26337623596191</v>
       </c>
       <c r="AB27" t="n">
-        <v>30.00307846069336</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>23.25136566162109</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>0.05622541531920433</v>
+        <v>0.05568010360002518</v>
       </c>
     </row>
     <row r="28">
@@ -3021,52 +2855,46 @@
         <v>24.55868339538574</v>
       </c>
       <c r="O28" t="n">
-        <v>26.43685150146484</v>
+        <v>22.57526206970215</v>
       </c>
       <c r="P28" t="n">
-        <v>22.06683731079102</v>
+        <v>0.8662430047988892</v>
       </c>
       <c r="Q28" t="n">
-        <v>22.57526206970215</v>
+        <v>16.44841384887695</v>
       </c>
       <c r="R28" t="n">
-        <v>0.8662430047988892</v>
+        <v>5.827376365661621</v>
       </c>
       <c r="S28" t="n">
-        <v>16.44841384887695</v>
+        <v>3.556575059890747</v>
       </c>
       <c r="T28" t="n">
-        <v>5.827376365661621</v>
+        <v>9.045271873474121</v>
       </c>
       <c r="U28" t="n">
-        <v>3.556575059890747</v>
+        <v>8.043868064880371</v>
       </c>
       <c r="V28" t="n">
-        <v>9.045271873474121</v>
+        <v>0.8069413900375366</v>
       </c>
       <c r="W28" t="n">
-        <v>8.043868064880371</v>
+        <v>25.75631141662598</v>
       </c>
       <c r="X28" t="n">
-        <v>0.8069413900375366</v>
+        <v>3.174363374710083</v>
       </c>
       <c r="Y28" t="n">
-        <v>25.75631141662598</v>
+        <v>2.76786470413208</v>
       </c>
       <c r="Z28" t="n">
-        <v>3.174363374710083</v>
+        <v>36.12163543701172</v>
       </c>
       <c r="AA28" t="n">
-        <v>2.76786470413208</v>
+        <v>26.15205955505371</v>
       </c>
       <c r="AB28" t="n">
-        <v>36.12163543701172</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>25.64846420288086</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>0.08878455311059952</v>
+        <v>0.06781844794750214</v>
       </c>
     </row>
     <row r="29">
@@ -3113,52 +2941,46 @@
         <v>27.92565155029297</v>
       </c>
       <c r="O29" t="n">
-        <v>29.66368103027344</v>
+        <v>22.19033050537109</v>
       </c>
       <c r="P29" t="n">
-        <v>24.24637031555176</v>
+        <v>0.9299731254577637</v>
       </c>
       <c r="Q29" t="n">
-        <v>22.19033050537109</v>
+        <v>16.41783905029297</v>
       </c>
       <c r="R29" t="n">
-        <v>0.9299731254577637</v>
+        <v>5.92151927947998</v>
       </c>
       <c r="S29" t="n">
-        <v>16.41783905029297</v>
+        <v>3.654222249984741</v>
       </c>
       <c r="T29" t="n">
-        <v>5.92151927947998</v>
+        <v>10.12545013427734</v>
       </c>
       <c r="U29" t="n">
-        <v>3.654222249984741</v>
+        <v>7.029592990875244</v>
       </c>
       <c r="V29" t="n">
-        <v>10.12545013427734</v>
+        <v>0.8267104029655457</v>
       </c>
       <c r="W29" t="n">
-        <v>7.029592990875244</v>
+        <v>27.46412658691406</v>
       </c>
       <c r="X29" t="n">
-        <v>0.8267104029655457</v>
+        <v>2.870885610580444</v>
       </c>
       <c r="Y29" t="n">
-        <v>27.46412658691406</v>
+        <v>2.548221826553345</v>
       </c>
       <c r="Z29" t="n">
-        <v>2.870885610580444</v>
+        <v>46.16962051391602</v>
       </c>
       <c r="AA29" t="n">
-        <v>2.548221826553345</v>
+        <v>29.60475158691406</v>
       </c>
       <c r="AB29" t="n">
-        <v>46.16962051391602</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>30.91300392150879</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>0.07368443161249161</v>
+        <v>0.03274997696280479</v>
       </c>
     </row>
     <row r="30">
@@ -3205,52 +3027,46 @@
         <v>28.63519668579102</v>
       </c>
       <c r="O30" t="n">
-        <v>29.68456268310547</v>
+        <v>11.37703990936279</v>
       </c>
       <c r="P30" t="n">
-        <v>26.89169692993164</v>
+        <v>0.8225210905075073</v>
       </c>
       <c r="Q30" t="n">
-        <v>11.37703990936279</v>
+        <v>15.39949703216553</v>
       </c>
       <c r="R30" t="n">
-        <v>0.8225210905075073</v>
+        <v>5.715048313140869</v>
       </c>
       <c r="S30" t="n">
-        <v>15.39949703216553</v>
+        <v>3.470253229141235</v>
       </c>
       <c r="T30" t="n">
-        <v>5.715048313140869</v>
+        <v>9.294735908508301</v>
       </c>
       <c r="U30" t="n">
-        <v>3.470253229141235</v>
+        <v>3.943975687026978</v>
       </c>
       <c r="V30" t="n">
-        <v>9.294735908508301</v>
+        <v>0.9921704530715942</v>
       </c>
       <c r="W30" t="n">
-        <v>3.943975687026978</v>
+        <v>28.16018295288086</v>
       </c>
       <c r="X30" t="n">
-        <v>0.9921704530715942</v>
+        <v>2.798708200454712</v>
       </c>
       <c r="Y30" t="n">
-        <v>28.16018295288086</v>
+        <v>2.46392035484314</v>
       </c>
       <c r="Z30" t="n">
-        <v>2.798708200454712</v>
+        <v>43.09845352172852</v>
       </c>
       <c r="AA30" t="n">
-        <v>2.46392035484314</v>
+        <v>30.0473518371582</v>
       </c>
       <c r="AB30" t="n">
-        <v>43.09845352172852</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>30.66229057312012</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>0.1600296497344971</v>
+        <v>0.142839103937149</v>
       </c>
     </row>
     <row r="31">
@@ -3297,52 +3113,46 @@
         <v>25.75541496276855</v>
       </c>
       <c r="O31" t="n">
-        <v>29.28366279602051</v>
+        <v>30.66825866699219</v>
       </c>
       <c r="P31" t="n">
-        <v>23.19999885559082</v>
+        <v>1.058501601219177</v>
       </c>
       <c r="Q31" t="n">
-        <v>30.66825866699219</v>
+        <v>12.84341812133789</v>
       </c>
       <c r="R31" t="n">
-        <v>1.058501601219177</v>
+        <v>5.192641258239746</v>
       </c>
       <c r="S31" t="n">
-        <v>12.84341812133789</v>
+        <v>2.905129909515381</v>
       </c>
       <c r="T31" t="n">
-        <v>5.192641258239746</v>
+        <v>8.03837776184082</v>
       </c>
       <c r="U31" t="n">
-        <v>2.905129909515381</v>
+        <v>7.770553112030029</v>
       </c>
       <c r="V31" t="n">
-        <v>8.03837776184082</v>
+        <v>0.8473734855651855</v>
       </c>
       <c r="W31" t="n">
-        <v>7.770553112030029</v>
+        <v>27.19506454467773</v>
       </c>
       <c r="X31" t="n">
-        <v>0.8473734855651855</v>
+        <v>2.613074064254761</v>
       </c>
       <c r="Y31" t="n">
-        <v>27.19506454467773</v>
+        <v>2.47697114944458</v>
       </c>
       <c r="Z31" t="n">
-        <v>2.613074064254761</v>
+        <v>41.35787582397461</v>
       </c>
       <c r="AA31" t="n">
-        <v>2.47697114944458</v>
+        <v>27.0276050567627</v>
       </c>
       <c r="AB31" t="n">
-        <v>41.35787582397461</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>26.48749351501465</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>0.0533379428088665</v>
+        <v>0.07225575298070908</v>
       </c>
     </row>
     <row r="32">
@@ -3389,52 +3199,46 @@
         <v>25.07470512390137</v>
       </c>
       <c r="O32" t="n">
-        <v>27.57587242126465</v>
+        <v>26.0236930847168</v>
       </c>
       <c r="P32" t="n">
-        <v>21.75837135314941</v>
+        <v>0.8525019884109497</v>
       </c>
       <c r="Q32" t="n">
-        <v>26.0236930847168</v>
+        <v>11.59110450744629</v>
       </c>
       <c r="R32" t="n">
-        <v>0.8525019884109497</v>
+        <v>5.180575847625732</v>
       </c>
       <c r="S32" t="n">
-        <v>11.59110450744629</v>
+        <v>2.648111343383789</v>
       </c>
       <c r="T32" t="n">
-        <v>5.180575847625732</v>
+        <v>7.432337760925293</v>
       </c>
       <c r="U32" t="n">
-        <v>2.648111343383789</v>
+        <v>-7.120028972625732</v>
       </c>
       <c r="V32" t="n">
-        <v>7.432337760925293</v>
+        <v>0.8330383896827698</v>
       </c>
       <c r="W32" t="n">
-        <v>-7.120028972625732</v>
+        <v>22.96756744384766</v>
       </c>
       <c r="X32" t="n">
-        <v>0.8330383896827698</v>
+        <v>2.332183837890625</v>
       </c>
       <c r="Y32" t="n">
-        <v>22.96756744384766</v>
+        <v>2.29177188873291</v>
       </c>
       <c r="Z32" t="n">
-        <v>2.332183837890625</v>
+        <v>40.38209915161133</v>
       </c>
       <c r="AA32" t="n">
-        <v>2.29177188873291</v>
+        <v>26.34686660766602</v>
       </c>
       <c r="AB32" t="n">
-        <v>40.38209915161133</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>24.11472129821777</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>0.03708477690815926</v>
+        <v>0.1186643689870834</v>
       </c>
     </row>
     <row r="33">
@@ -3481,52 +3285,46 @@
         <v>23.22043228149414</v>
       </c>
       <c r="O33" t="n">
-        <v>25.46572113037109</v>
+        <v>20.72593116760254</v>
       </c>
       <c r="P33" t="n">
-        <v>21.1076545715332</v>
+        <v>0.7013595700263977</v>
       </c>
       <c r="Q33" t="n">
-        <v>20.72593116760254</v>
+        <v>10.570068359375</v>
       </c>
       <c r="R33" t="n">
-        <v>0.7013595700263977</v>
+        <v>4.42236852645874</v>
       </c>
       <c r="S33" t="n">
-        <v>10.570068359375</v>
+        <v>2.415835857391357</v>
       </c>
       <c r="T33" t="n">
-        <v>4.42236852645874</v>
+        <v>8.568087577819824</v>
       </c>
       <c r="U33" t="n">
-        <v>2.415835857391357</v>
+        <v>7.468961238861084</v>
       </c>
       <c r="V33" t="n">
-        <v>8.568087577819824</v>
+        <v>0.7854357361793518</v>
       </c>
       <c r="W33" t="n">
-        <v>7.468961238861084</v>
+        <v>23.2652702331543</v>
       </c>
       <c r="X33" t="n">
-        <v>0.7854357361793518</v>
+        <v>2.690513134002686</v>
       </c>
       <c r="Y33" t="n">
-        <v>23.2652702331543</v>
+        <v>2.29282283782959</v>
       </c>
       <c r="Z33" t="n">
-        <v>2.690513134002686</v>
+        <v>36.05032730102539</v>
       </c>
       <c r="AA33" t="n">
-        <v>2.29282283782959</v>
+        <v>24.52481269836426</v>
       </c>
       <c r="AB33" t="n">
-        <v>36.05032730102539</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>24.02784538269043</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>0.0823269784450531</v>
+        <v>0.1009225696325302</v>
       </c>
     </row>
     <row r="34">
@@ -3573,52 +3371,46 @@
         <v>22.04970550537109</v>
       </c>
       <c r="O34" t="n">
-        <v>23.70515632629395</v>
+        <v>14.54632091522217</v>
       </c>
       <c r="P34" t="n">
-        <v>20.64745712280273</v>
+        <v>0.7234984636306763</v>
       </c>
       <c r="Q34" t="n">
-        <v>14.54632091522217</v>
+        <v>10.43276214599609</v>
       </c>
       <c r="R34" t="n">
-        <v>0.7234984636306763</v>
+        <v>4.0509033203125</v>
       </c>
       <c r="S34" t="n">
-        <v>10.43276214599609</v>
+        <v>2.322654724121094</v>
       </c>
       <c r="T34" t="n">
-        <v>4.0509033203125</v>
+        <v>8.381787300109863</v>
       </c>
       <c r="U34" t="n">
-        <v>2.322654724121094</v>
+        <v>6.276125431060791</v>
       </c>
       <c r="V34" t="n">
-        <v>8.381787300109863</v>
+        <v>1.004781603813171</v>
       </c>
       <c r="W34" t="n">
-        <v>6.276125431060791</v>
+        <v>26.40813827514648</v>
       </c>
       <c r="X34" t="n">
-        <v>1.004781603813171</v>
+        <v>2.744666337966919</v>
       </c>
       <c r="Y34" t="n">
-        <v>26.40813827514648</v>
+        <v>2.444620132446289</v>
       </c>
       <c r="Z34" t="n">
-        <v>2.744666337966919</v>
+        <v>37.97917556762695</v>
       </c>
       <c r="AA34" t="n">
-        <v>2.444620132446289</v>
+        <v>23.5097713470459</v>
       </c>
       <c r="AB34" t="n">
-        <v>37.97917556762695</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>22.81735420227051</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>0.110528789460659</v>
+        <v>0.07782115042209625</v>
       </c>
     </row>
     <row r="35">
@@ -3665,52 +3457,46 @@
         <v>25.33932876586914</v>
       </c>
       <c r="O35" t="n">
-        <v>27.17277526855469</v>
+        <v>23.53911781311035</v>
       </c>
       <c r="P35" t="n">
-        <v>22.09419631958008</v>
+        <v>0.6693233847618103</v>
       </c>
       <c r="Q35" t="n">
-        <v>23.53911781311035</v>
+        <v>12.4738941192627</v>
       </c>
       <c r="R35" t="n">
-        <v>0.6693233847618103</v>
+        <v>4.707018375396729</v>
       </c>
       <c r="S35" t="n">
-        <v>12.4738941192627</v>
+        <v>2.705429315567017</v>
       </c>
       <c r="T35" t="n">
-        <v>4.707018375396729</v>
+        <v>9.680107116699219</v>
       </c>
       <c r="U35" t="n">
-        <v>2.705429315567017</v>
+        <v>11.43992900848389</v>
       </c>
       <c r="V35" t="n">
-        <v>9.680107116699219</v>
+        <v>1.015709638595581</v>
       </c>
       <c r="W35" t="n">
-        <v>11.43992900848389</v>
+        <v>28.75082015991211</v>
       </c>
       <c r="X35" t="n">
-        <v>1.015709638595581</v>
+        <v>2.956622362136841</v>
       </c>
       <c r="Y35" t="n">
-        <v>28.75082015991211</v>
+        <v>2.800931215286255</v>
       </c>
       <c r="Z35" t="n">
-        <v>2.956622362136841</v>
+        <v>40.21112060546875</v>
       </c>
       <c r="AA35" t="n">
-        <v>2.800931215286255</v>
+        <v>27.09335517883301</v>
       </c>
       <c r="AB35" t="n">
-        <v>40.21112060546875</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>28.42763710021973</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>0.0687185674905777</v>
+        <v>0.02285521849989891</v>
       </c>
     </row>
     <row r="36">
@@ -3757,52 +3543,46 @@
         <v>26.47413063049316</v>
       </c>
       <c r="O36" t="n">
-        <v>28.1668758392334</v>
+        <v>15.68573188781738</v>
       </c>
       <c r="P36" t="n">
-        <v>24.41591262817383</v>
+        <v>0.590063750743866</v>
       </c>
       <c r="Q36" t="n">
-        <v>15.68573188781738</v>
+        <v>13.38513565063477</v>
       </c>
       <c r="R36" t="n">
-        <v>0.590063750743866</v>
+        <v>4.765135765075684</v>
       </c>
       <c r="S36" t="n">
-        <v>13.38513565063477</v>
+        <v>2.834908962249756</v>
       </c>
       <c r="T36" t="n">
-        <v>4.765135765075684</v>
+        <v>9.891559600830078</v>
       </c>
       <c r="U36" t="n">
-        <v>2.834908962249756</v>
+        <v>5.335855960845947</v>
       </c>
       <c r="V36" t="n">
-        <v>9.891559600830078</v>
+        <v>0.8477092981338501</v>
       </c>
       <c r="W36" t="n">
-        <v>5.335855960845947</v>
+        <v>30.7586612701416</v>
       </c>
       <c r="X36" t="n">
-        <v>0.8477092981338501</v>
+        <v>3.091141223907471</v>
       </c>
       <c r="Y36" t="n">
-        <v>30.7586612701416</v>
+        <v>3.030298948287964</v>
       </c>
       <c r="Z36" t="n">
-        <v>3.091141223907471</v>
+        <v>42.67475128173828</v>
       </c>
       <c r="AA36" t="n">
-        <v>3.030298948287964</v>
+        <v>28.42088890075684</v>
       </c>
       <c r="AB36" t="n">
-        <v>42.67475128173828</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>29.3210334777832</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>0.09814406931400299</v>
+        <v>0.132924422621727</v>
       </c>
     </row>
     <row r="37">
@@ -3849,52 +3629,46 @@
         <v>32.1987190246582</v>
       </c>
       <c r="O37" t="n">
-        <v>34.21820449829102</v>
+        <v>23.11276626586914</v>
       </c>
       <c r="P37" t="n">
-        <v>28.02829360961914</v>
+        <v>0.4868824779987335</v>
       </c>
       <c r="Q37" t="n">
-        <v>23.11276626586914</v>
+        <v>16.14523887634277</v>
       </c>
       <c r="R37" t="n">
-        <v>0.4868824779987335</v>
+        <v>5.514184474945068</v>
       </c>
       <c r="S37" t="n">
-        <v>16.14523887634277</v>
+        <v>3.347026586532593</v>
       </c>
       <c r="T37" t="n">
-        <v>5.514184474945068</v>
+        <v>11.66609573364258</v>
       </c>
       <c r="U37" t="n">
-        <v>3.347026586532593</v>
+        <v>12.57187843322754</v>
       </c>
       <c r="V37" t="n">
-        <v>11.66609573364258</v>
+        <v>0.9433879852294922</v>
       </c>
       <c r="W37" t="n">
-        <v>12.57187843322754</v>
+        <v>31.55623435974121</v>
       </c>
       <c r="X37" t="n">
-        <v>0.9433879852294922</v>
+        <v>3.134927988052368</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.55623435974121</v>
+        <v>2.927675485610962</v>
       </c>
       <c r="Z37" t="n">
-        <v>3.134927988052368</v>
+        <v>35.80142593383789</v>
       </c>
       <c r="AA37" t="n">
-        <v>2.927675485610962</v>
+        <v>34.5587158203125</v>
       </c>
       <c r="AB37" t="n">
-        <v>35.80142593383789</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>36.1580696105957</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>0.0374273844063282</v>
+        <v>0.007119818590581417</v>
       </c>
     </row>
     <row r="38">
@@ -3941,52 +3715,46 @@
         <v>34.80476760864258</v>
       </c>
       <c r="O38" t="n">
-        <v>36.36030578613281</v>
+        <v>9.898788452148438</v>
       </c>
       <c r="P38" t="n">
-        <v>33.13888931274414</v>
+        <v>0.5263399481773376</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.898788452148438</v>
+        <v>17.04631042480469</v>
       </c>
       <c r="R38" t="n">
-        <v>0.5263399481773376</v>
+        <v>5.816759586334229</v>
       </c>
       <c r="S38" t="n">
-        <v>17.04631042480469</v>
+        <v>3.536303043365479</v>
       </c>
       <c r="T38" t="n">
-        <v>5.816759586334229</v>
+        <v>12.21103668212891</v>
       </c>
       <c r="U38" t="n">
-        <v>3.536303043365479</v>
+        <v>7.033010959625244</v>
       </c>
       <c r="V38" t="n">
-        <v>12.21103668212891</v>
+        <v>1.251234769821167</v>
       </c>
       <c r="W38" t="n">
-        <v>7.033010959625244</v>
+        <v>31.27665328979492</v>
       </c>
       <c r="X38" t="n">
-        <v>1.251234769821167</v>
+        <v>3.268260478973389</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.27665328979492</v>
+        <v>3.074214458465576</v>
       </c>
       <c r="Z38" t="n">
-        <v>3.268260478973389</v>
+        <v>38.87143325805664</v>
       </c>
       <c r="AA38" t="n">
-        <v>3.074214458465576</v>
+        <v>36.87063598632812</v>
       </c>
       <c r="AB38" t="n">
-        <v>38.87143325805664</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>36.56143951416016</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>0.01210732664912939</v>
+        <v>0.003619813127443194</v>
       </c>
     </row>
     <row r="39">
@@ -4033,52 +3801,46 @@
         <v>37.00410079956055</v>
       </c>
       <c r="O39" t="n">
-        <v>39.52903747558594</v>
+        <v>14.92459487915039</v>
       </c>
       <c r="P39" t="n">
-        <v>34.95108413696289</v>
+        <v>0.5526382923126221</v>
       </c>
       <c r="Q39" t="n">
-        <v>14.92459487915039</v>
+        <v>17.53705596923828</v>
       </c>
       <c r="R39" t="n">
-        <v>0.5526382923126221</v>
+        <v>6.18025541305542</v>
       </c>
       <c r="S39" t="n">
-        <v>17.53705596923828</v>
+        <v>3.660971641540527</v>
       </c>
       <c r="T39" t="n">
-        <v>6.18025541305542</v>
+        <v>13.65336132049561</v>
       </c>
       <c r="U39" t="n">
-        <v>3.660971641540527</v>
+        <v>14.05680274963379</v>
       </c>
       <c r="V39" t="n">
-        <v>13.65336132049561</v>
+        <v>1.232121706008911</v>
       </c>
       <c r="W39" t="n">
-        <v>14.05680274963379</v>
+        <v>30.81871795654297</v>
       </c>
       <c r="X39" t="n">
-        <v>1.232121706008911</v>
+        <v>3.347018957138062</v>
       </c>
       <c r="Y39" t="n">
-        <v>30.81871795654297</v>
+        <v>3.285037279129028</v>
       </c>
       <c r="Z39" t="n">
-        <v>3.347018957138062</v>
+        <v>43.48134231567383</v>
       </c>
       <c r="AA39" t="n">
-        <v>3.285037279129028</v>
+        <v>38.79953765869141</v>
       </c>
       <c r="AB39" t="n">
-        <v>43.48134231567383</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>39.84576797485352</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>0.01678338646888733</v>
+        <v>0.04420097172260284</v>
       </c>
     </row>
     <row r="40">
@@ -4125,52 +3887,46 @@
         <v>40.5145149230957</v>
       </c>
       <c r="O40" t="n">
-        <v>42.06961822509766</v>
+        <v>9.268039703369141</v>
       </c>
       <c r="P40" t="n">
-        <v>39.18534088134766</v>
+        <v>0.565807044506073</v>
       </c>
       <c r="Q40" t="n">
-        <v>9.268039703369141</v>
+        <v>18.33829879760742</v>
       </c>
       <c r="R40" t="n">
-        <v>0.565807044506073</v>
+        <v>6.614575862884521</v>
       </c>
       <c r="S40" t="n">
-        <v>18.33829879760742</v>
+        <v>3.868074178695679</v>
       </c>
       <c r="T40" t="n">
-        <v>6.614575862884521</v>
+        <v>13.32314968109131</v>
       </c>
       <c r="U40" t="n">
-        <v>3.868074178695679</v>
+        <v>8.207818984985352</v>
       </c>
       <c r="V40" t="n">
-        <v>13.32314968109131</v>
+        <v>1.759145259857178</v>
       </c>
       <c r="W40" t="n">
-        <v>8.207818984985352</v>
+        <v>30.89787292480469</v>
       </c>
       <c r="X40" t="n">
-        <v>1.759145259857178</v>
+        <v>3.634853363037109</v>
       </c>
       <c r="Y40" t="n">
-        <v>30.89787292480469</v>
+        <v>3.31850528717041</v>
       </c>
       <c r="Z40" t="n">
-        <v>3.634853363037109</v>
+        <v>45.07501983642578</v>
       </c>
       <c r="AA40" t="n">
-        <v>3.31850528717041</v>
+        <v>41.87360763549805</v>
       </c>
       <c r="AB40" t="n">
-        <v>45.07501983642578</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>40.83235931396484</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>0.01545447017997503</v>
+        <v>0.03993663191795349</v>
       </c>
     </row>
     <row r="41">
@@ -4217,52 +3973,46 @@
         <v>40.20131683349609</v>
       </c>
       <c r="O41" t="n">
-        <v>42.82082366943359</v>
+        <v>19.94601249694824</v>
       </c>
       <c r="P41" t="n">
-        <v>36.4113655090332</v>
+        <v>0.7528796195983887</v>
       </c>
       <c r="Q41" t="n">
-        <v>19.94601249694824</v>
+        <v>17.13444709777832</v>
       </c>
       <c r="R41" t="n">
-        <v>0.7528796195983887</v>
+        <v>6.190454959869385</v>
       </c>
       <c r="S41" t="n">
-        <v>17.13444709777832</v>
+        <v>3.620687007904053</v>
       </c>
       <c r="T41" t="n">
-        <v>6.190454959869385</v>
+        <v>12.76486015319824</v>
       </c>
       <c r="U41" t="n">
-        <v>3.620687007904053</v>
+        <v>-2.153877258300781</v>
       </c>
       <c r="V41" t="n">
-        <v>12.76486015319824</v>
+        <v>1.758500337600708</v>
       </c>
       <c r="W41" t="n">
-        <v>-2.153877258300781</v>
+        <v>29.16123962402344</v>
       </c>
       <c r="X41" t="n">
-        <v>1.758500337600708</v>
+        <v>3.38405179977417</v>
       </c>
       <c r="Y41" t="n">
-        <v>29.16123962402344</v>
+        <v>3.007963180541992</v>
       </c>
       <c r="Z41" t="n">
-        <v>3.38405179977417</v>
+        <v>39.96976852416992</v>
       </c>
       <c r="AA41" t="n">
-        <v>3.007963180541992</v>
+        <v>41.35363388061523</v>
       </c>
       <c r="AB41" t="n">
-        <v>39.96976852416992</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>40.91703796386719</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>0.0849514976143837</v>
+        <v>0.0734969899058342</v>
       </c>
     </row>
     <row r="42">
@@ -4309,52 +4059,46 @@
         <v>44.39300155639648</v>
       </c>
       <c r="O42" t="n">
-        <v>46.08475112915039</v>
+        <v>19.0279712677002</v>
       </c>
       <c r="P42" t="n">
-        <v>39.84702682495117</v>
+        <v>0.4896149635314941</v>
       </c>
       <c r="Q42" t="n">
-        <v>19.0279712677002</v>
+        <v>17.33569145202637</v>
       </c>
       <c r="R42" t="n">
-        <v>0.4896149635314941</v>
+        <v>7.302693843841553</v>
       </c>
       <c r="S42" t="n">
-        <v>17.33569145202637</v>
+        <v>3.736954689025879</v>
       </c>
       <c r="T42" t="n">
-        <v>7.302693843841553</v>
+        <v>12.80656147003174</v>
       </c>
       <c r="U42" t="n">
-        <v>3.736954689025879</v>
+        <v>11.06561088562012</v>
       </c>
       <c r="V42" t="n">
-        <v>12.80656147003174</v>
+        <v>1.586530923843384</v>
       </c>
       <c r="W42" t="n">
-        <v>11.06561088562012</v>
+        <v>29.56970596313477</v>
       </c>
       <c r="X42" t="n">
-        <v>1.586530923843384</v>
+        <v>3.633287906646729</v>
       </c>
       <c r="Y42" t="n">
-        <v>29.56970596313477</v>
+        <v>3.21080470085144</v>
       </c>
       <c r="Z42" t="n">
-        <v>3.633287906646729</v>
+        <v>42.585693359375</v>
       </c>
       <c r="AA42" t="n">
-        <v>3.21080470085144</v>
+        <v>45.63056945800781</v>
       </c>
       <c r="AB42" t="n">
-        <v>42.585693359375</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>46.64380264282227</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>0.1077887192368507</v>
+        <v>0.1323873251676559</v>
       </c>
     </row>
     <row r="43">
@@ -4401,52 +4145,46 @@
         <v>51.67147827148438</v>
       </c>
       <c r="O43" t="n">
-        <v>55.08878707885742</v>
+        <v>23.66848373413086</v>
       </c>
       <c r="P43" t="n">
-        <v>45.01317977905273</v>
+        <v>0.6968482732772827</v>
       </c>
       <c r="Q43" t="n">
-        <v>23.66848373413086</v>
+        <v>18.76578903198242</v>
       </c>
       <c r="R43" t="n">
-        <v>0.6968482732772827</v>
+        <v>9.179904937744141</v>
       </c>
       <c r="S43" t="n">
-        <v>18.76578903198242</v>
+        <v>4.126670360565186</v>
       </c>
       <c r="T43" t="n">
-        <v>9.179904937744141</v>
+        <v>13.86091613769531</v>
       </c>
       <c r="U43" t="n">
-        <v>4.126670360565186</v>
+        <v>-0.9044227600097656</v>
       </c>
       <c r="V43" t="n">
-        <v>13.86091613769531</v>
+        <v>1.49983012676239</v>
       </c>
       <c r="W43" t="n">
-        <v>-0.9044227600097656</v>
+        <v>26.22524452209473</v>
       </c>
       <c r="X43" t="n">
-        <v>1.49983012676239</v>
+        <v>3.214466571807861</v>
       </c>
       <c r="Y43" t="n">
-        <v>26.22524452209473</v>
+        <v>3.035255670547485</v>
       </c>
       <c r="Z43" t="n">
-        <v>3.214466571807861</v>
+        <v>40.0185432434082</v>
       </c>
       <c r="AA43" t="n">
-        <v>3.035255670547485</v>
+        <v>53.13984298706055</v>
       </c>
       <c r="AB43" t="n">
-        <v>40.0185432434082</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>55.34430313110352</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>0.2641916275024414</v>
+        <v>0.2336672693490982</v>
       </c>
     </row>
     <row r="44">
@@ -4493,52 +4231,46 @@
         <v>40.72280120849609</v>
       </c>
       <c r="O44" t="n">
-        <v>52.75059127807617</v>
+        <v>36.49115371704102</v>
       </c>
       <c r="P44" t="n">
-        <v>33.8708381652832</v>
+        <v>0.9166700839996338</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.49115371704102</v>
+        <v>13.57922744750977</v>
       </c>
       <c r="R44" t="n">
-        <v>0.9166700839996338</v>
+        <v>7.533852577209473</v>
       </c>
       <c r="S44" t="n">
-        <v>13.57922744750977</v>
+        <v>3.044310092926025</v>
       </c>
       <c r="T44" t="n">
-        <v>7.533852577209473</v>
+        <v>9.679657936096191</v>
       </c>
       <c r="U44" t="n">
-        <v>3.044310092926025</v>
+        <v>-4.607228755950928</v>
       </c>
       <c r="V44" t="n">
-        <v>9.679657936096191</v>
+        <v>1.758404731750488</v>
       </c>
       <c r="W44" t="n">
-        <v>-4.607228755950928</v>
+        <v>23.36940956115723</v>
       </c>
       <c r="X44" t="n">
-        <v>1.758404731750488</v>
+        <v>3.009905576705933</v>
       </c>
       <c r="Y44" t="n">
-        <v>23.36940956115723</v>
+        <v>2.739083290100098</v>
       </c>
       <c r="Z44" t="n">
-        <v>3.009905576705933</v>
+        <v>35.98374938964844</v>
       </c>
       <c r="AA44" t="n">
-        <v>2.739083290100098</v>
+        <v>41.86915588378906</v>
       </c>
       <c r="AB44" t="n">
-        <v>35.98374938964844</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>38.76555633544922</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>0.1354154348373413</v>
+        <v>0.05125144869089127</v>
       </c>
     </row>
     <row r="45">
@@ -4585,52 +4317,46 @@
         <v>44.01501083374023</v>
       </c>
       <c r="O45" t="n">
-        <v>49.63542175292969</v>
+        <v>35.35772323608398</v>
       </c>
       <c r="P45" t="n">
-        <v>36.8460578918457</v>
+        <v>0.5885639786720276</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.35772323608398</v>
+        <v>14.65086841583252</v>
       </c>
       <c r="R45" t="n">
-        <v>0.5885639786720276</v>
+        <v>7.394996643066406</v>
       </c>
       <c r="S45" t="n">
-        <v>14.65086841583252</v>
+        <v>3.326715707778931</v>
       </c>
       <c r="T45" t="n">
-        <v>7.394996643066406</v>
+        <v>13.16821479797363</v>
       </c>
       <c r="U45" t="n">
-        <v>3.326715707778931</v>
+        <v>22.70649909973145</v>
       </c>
       <c r="V45" t="n">
-        <v>13.16821479797363</v>
+        <v>1.425612211227417</v>
       </c>
       <c r="W45" t="n">
-        <v>22.70649909973145</v>
+        <v>27.59458160400391</v>
       </c>
       <c r="X45" t="n">
-        <v>1.425612211227417</v>
+        <v>3.432342290878296</v>
       </c>
       <c r="Y45" t="n">
-        <v>27.59458160400391</v>
+        <v>3.229958295822144</v>
       </c>
       <c r="Z45" t="n">
-        <v>3.432342290878296</v>
+        <v>52.36360549926758</v>
       </c>
       <c r="AA45" t="n">
-        <v>3.229958295822144</v>
+        <v>45.69845962524414</v>
       </c>
       <c r="AB45" t="n">
-        <v>52.36360549926758</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>49.91800308227539</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>0.05504059419035912</v>
+        <v>0.03221173956990242</v>
       </c>
     </row>
     <row r="46">
@@ -4677,52 +4403,46 @@
         <v>47.17048645019531</v>
       </c>
       <c r="O46" t="n">
-        <v>50.65693664550781</v>
+        <v>21.69214057922363</v>
       </c>
       <c r="P46" t="n">
-        <v>41.61820220947266</v>
+        <v>0.5768907070159912</v>
       </c>
       <c r="Q46" t="n">
-        <v>21.69214057922363</v>
+        <v>15.81984329223633</v>
       </c>
       <c r="R46" t="n">
-        <v>0.5768907070159912</v>
+        <v>8.553625106811523</v>
       </c>
       <c r="S46" t="n">
-        <v>15.81984329223633</v>
+        <v>3.497201681137085</v>
       </c>
       <c r="T46" t="n">
-        <v>8.553625106811523</v>
+        <v>13.92111206054688</v>
       </c>
       <c r="U46" t="n">
-        <v>3.497201681137085</v>
+        <v>2.818515062332153</v>
       </c>
       <c r="V46" t="n">
-        <v>13.92111206054688</v>
+        <v>1.890929818153381</v>
       </c>
       <c r="W46" t="n">
-        <v>2.818515062332153</v>
+        <v>25.36082458496094</v>
       </c>
       <c r="X46" t="n">
-        <v>1.890929818153381</v>
+        <v>3.654677391052246</v>
       </c>
       <c r="Y46" t="n">
-        <v>25.36082458496094</v>
+        <v>3.235750675201416</v>
       </c>
       <c r="Z46" t="n">
-        <v>3.654677391052246</v>
+        <v>50.04637145996094</v>
       </c>
       <c r="AA46" t="n">
-        <v>3.235750675201416</v>
+        <v>48.95375823974609</v>
       </c>
       <c r="AB46" t="n">
-        <v>50.04637145996094</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>52.65975952148438</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>0.001390856807120144</v>
+        <v>0.0772002711892128</v>
       </c>
     </row>
     <row r="47">
@@ -4769,52 +4489,46 @@
         <v>52.73300170898438</v>
       </c>
       <c r="O47" t="n">
-        <v>60.03689575195312</v>
+        <v>27.71790504455566</v>
       </c>
       <c r="P47" t="n">
-        <v>46.43083190917969</v>
+        <v>0.6478091478347778</v>
       </c>
       <c r="Q47" t="n">
-        <v>27.71790504455566</v>
+        <v>17.77655792236328</v>
       </c>
       <c r="R47" t="n">
-        <v>0.6478091478347778</v>
+        <v>10.27444076538086</v>
       </c>
       <c r="S47" t="n">
-        <v>17.77655792236328</v>
+        <v>3.821351528167725</v>
       </c>
       <c r="T47" t="n">
-        <v>10.27444076538086</v>
+        <v>15.84262657165527</v>
       </c>
       <c r="U47" t="n">
-        <v>3.821351528167725</v>
+        <v>4.728521347045898</v>
       </c>
       <c r="V47" t="n">
-        <v>15.84262657165527</v>
+        <v>1.169323205947876</v>
       </c>
       <c r="W47" t="n">
-        <v>4.728521347045898</v>
+        <v>27.30308532714844</v>
       </c>
       <c r="X47" t="n">
-        <v>1.169323205947876</v>
+        <v>3.156193017959595</v>
       </c>
       <c r="Y47" t="n">
-        <v>27.30308532714844</v>
+        <v>3.086779832839966</v>
       </c>
       <c r="Z47" t="n">
-        <v>3.156193017959595</v>
+        <v>51.09768295288086</v>
       </c>
       <c r="AA47" t="n">
-        <v>3.086779832839966</v>
+        <v>54.98726654052734</v>
       </c>
       <c r="AB47" t="n">
-        <v>51.09768295288086</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>60.33106231689453</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>0.1234423890709877</v>
+        <v>0.2326212376356125</v>
       </c>
     </row>
     <row r="48">
@@ -4861,52 +4575,46 @@
         <v>67.77847290039062</v>
       </c>
       <c r="O48" t="n">
-        <v>77.18578338623047</v>
+        <v>35.77654266357422</v>
       </c>
       <c r="P48" t="n">
-        <v>58.64113616943359</v>
+        <v>0.6353912353515625</v>
       </c>
       <c r="Q48" t="n">
-        <v>35.77654266357422</v>
+        <v>22.58611869812012</v>
       </c>
       <c r="R48" t="n">
-        <v>0.6353912353515625</v>
+        <v>13.80492115020752</v>
       </c>
       <c r="S48" t="n">
-        <v>22.58611869812012</v>
+        <v>4.7978835105896</v>
       </c>
       <c r="T48" t="n">
-        <v>13.80492115020752</v>
+        <v>19.2794132232666</v>
       </c>
       <c r="U48" t="n">
-        <v>4.7978835105896</v>
+        <v>19.06120491027832</v>
       </c>
       <c r="V48" t="n">
-        <v>19.2794132232666</v>
+        <v>1.289038300514221</v>
       </c>
       <c r="W48" t="n">
-        <v>19.06120491027832</v>
+        <v>33.20806121826172</v>
       </c>
       <c r="X48" t="n">
-        <v>1.289038300514221</v>
+        <v>3.6585373878479</v>
       </c>
       <c r="Y48" t="n">
-        <v>33.20806121826172</v>
+        <v>3.587593793869019</v>
       </c>
       <c r="Z48" t="n">
-        <v>3.6585373878479</v>
+        <v>51.57041168212891</v>
       </c>
       <c r="AA48" t="n">
-        <v>3.587593793869019</v>
+        <v>71.67303466796875</v>
       </c>
       <c r="AB48" t="n">
-        <v>51.57041168212891</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>78.70880126953125</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>0.1274514049291611</v>
+        <v>0.04179788008332253</v>
       </c>
     </row>
     <row r="49">
@@ -4953,52 +4661,46 @@
         <v>68.67725372314453</v>
       </c>
       <c r="O49" t="n">
-        <v>79.30059051513672</v>
+        <v>37.18465805053711</v>
       </c>
       <c r="P49" t="n">
-        <v>54.37858581542969</v>
+        <v>1.152536869049072</v>
       </c>
       <c r="Q49" t="n">
-        <v>37.18465805053711</v>
+        <v>21.53864479064941</v>
       </c>
       <c r="R49" t="n">
-        <v>1.152536869049072</v>
+        <v>13.86900043487549</v>
       </c>
       <c r="S49" t="n">
-        <v>21.53864479064941</v>
+        <v>4.628331661224365</v>
       </c>
       <c r="T49" t="n">
-        <v>13.86900043487549</v>
+        <v>17.05539131164551</v>
       </c>
       <c r="U49" t="n">
-        <v>4.628331661224365</v>
+        <v>-0.1048501580953598</v>
       </c>
       <c r="V49" t="n">
-        <v>17.05539131164551</v>
+        <v>1.692064046859741</v>
       </c>
       <c r="W49" t="n">
-        <v>-0.1048501580953598</v>
+        <v>29.49152374267578</v>
       </c>
       <c r="X49" t="n">
-        <v>1.692064046859741</v>
+        <v>2.887713193893433</v>
       </c>
       <c r="Y49" t="n">
-        <v>29.49152374267578</v>
+        <v>3.002636909484863</v>
       </c>
       <c r="Z49" t="n">
-        <v>2.887713193893433</v>
+        <v>21.13530731201172</v>
       </c>
       <c r="AA49" t="n">
-        <v>3.002636909484863</v>
+        <v>73.97392272949219</v>
       </c>
       <c r="AB49" t="n">
-        <v>21.13530731201172</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>75.09616088867188</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>0.1136058643460274</v>
+        <v>0.1305000782012939</v>
       </c>
     </row>
     <row r="50">
@@ -5045,52 +4747,46 @@
         <v>83.62752532958984</v>
       </c>
       <c r="O50" t="n">
-        <v>95.61028289794922</v>
+        <v>39.98620223999023</v>
       </c>
       <c r="P50" t="n">
-        <v>70.05935668945312</v>
+        <v>0.8035584092140198</v>
       </c>
       <c r="Q50" t="n">
-        <v>39.98620223999023</v>
+        <v>26.1362476348877</v>
       </c>
       <c r="R50" t="n">
-        <v>0.8035584092140198</v>
+        <v>19.10282897949219</v>
       </c>
       <c r="S50" t="n">
-        <v>26.1362476348877</v>
+        <v>5.580111026763916</v>
       </c>
       <c r="T50" t="n">
-        <v>19.10282897949219</v>
+        <v>20.84390068054199</v>
       </c>
       <c r="U50" t="n">
-        <v>5.580111026763916</v>
+        <v>23.68636703491211</v>
       </c>
       <c r="V50" t="n">
-        <v>20.84390068054199</v>
+        <v>2.81559944152832</v>
       </c>
       <c r="W50" t="n">
-        <v>23.68636703491211</v>
+        <v>34.91934204101562</v>
       </c>
       <c r="X50" t="n">
-        <v>2.81559944152832</v>
+        <v>3.397846937179565</v>
       </c>
       <c r="Y50" t="n">
-        <v>34.91934204101562</v>
+        <v>3.966832160949707</v>
       </c>
       <c r="Z50" t="n">
-        <v>3.397846937179565</v>
+        <v>27.17977142333984</v>
       </c>
       <c r="AA50" t="n">
-        <v>3.966832160949707</v>
+        <v>94.12959289550781</v>
       </c>
       <c r="AB50" t="n">
-        <v>27.17977142333984</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>96.71422576904297</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>0.1639393866062164</v>
+        <v>0.1958991140127182</v>
       </c>
     </row>
     <row r="51">
@@ -5137,52 +4833,46 @@
         <v>112.5694961547852</v>
       </c>
       <c r="O51" t="n">
-        <v>130.6674194335938</v>
+        <v>46.78166580200195</v>
       </c>
       <c r="P51" t="n">
-        <v>93.50332641601562</v>
+        <v>1.008891105651855</v>
       </c>
       <c r="Q51" t="n">
-        <v>46.78166580200195</v>
+        <v>33.95213317871094</v>
       </c>
       <c r="R51" t="n">
-        <v>1.008891105651855</v>
+        <v>27.47998809814453</v>
       </c>
       <c r="S51" t="n">
-        <v>33.95213317871094</v>
+        <v>7.241040229797363</v>
       </c>
       <c r="T51" t="n">
-        <v>27.47998809814453</v>
+        <v>24.44733619689941</v>
       </c>
       <c r="U51" t="n">
-        <v>7.241040229797363</v>
+        <v>11.85088443756104</v>
       </c>
       <c r="V51" t="n">
-        <v>24.44733619689941</v>
+        <v>1.993394255638123</v>
       </c>
       <c r="W51" t="n">
-        <v>11.85088443756104</v>
+        <v>32.05659484863281</v>
       </c>
       <c r="X51" t="n">
-        <v>1.993394255638123</v>
+        <v>3.504079580307007</v>
       </c>
       <c r="Y51" t="n">
-        <v>32.05659484863281</v>
+        <v>4.058793544769287</v>
       </c>
       <c r="Z51" t="n">
-        <v>3.504079580307007</v>
+        <v>29.28967666625977</v>
       </c>
       <c r="AA51" t="n">
-        <v>4.058793544769287</v>
+        <v>130.7636108398438</v>
       </c>
       <c r="AB51" t="n">
-        <v>29.28967666625977</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>115.0993118286133</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>0.05662145093083382</v>
+        <v>0.06995224952697754</v>
       </c>
     </row>
     <row r="52">
@@ -5229,52 +4919,46 @@
         <v>121.6164016723633</v>
       </c>
       <c r="O52" t="n">
-        <v>139.6528472900391</v>
+        <v>34.19092178344727</v>
       </c>
       <c r="P52" t="n">
-        <v>105.9225997924805</v>
+        <v>0.6490299701690674</v>
       </c>
       <c r="Q52" t="n">
-        <v>34.19092178344727</v>
+        <v>36.9251708984375</v>
       </c>
       <c r="R52" t="n">
-        <v>0.6490299701690674</v>
+        <v>32.49849700927734</v>
       </c>
       <c r="S52" t="n">
-        <v>36.9251708984375</v>
+        <v>7.727467060089111</v>
       </c>
       <c r="T52" t="n">
-        <v>32.49849700927734</v>
+        <v>27.16204261779785</v>
       </c>
       <c r="U52" t="n">
-        <v>7.727467060089111</v>
+        <v>24.50801086425781</v>
       </c>
       <c r="V52" t="n">
-        <v>27.16204261779785</v>
+        <v>2.122557163238525</v>
       </c>
       <c r="W52" t="n">
-        <v>24.50801086425781</v>
+        <v>37.78001022338867</v>
       </c>
       <c r="X52" t="n">
-        <v>2.122557163238525</v>
+        <v>5.055994033813477</v>
       </c>
       <c r="Y52" t="n">
-        <v>37.78001022338867</v>
+        <v>5.917489528656006</v>
       </c>
       <c r="Z52" t="n">
-        <v>5.055994033813477</v>
+        <v>42.37991714477539</v>
       </c>
       <c r="AA52" t="n">
-        <v>5.917489528656006</v>
+        <v>144.0603179931641</v>
       </c>
       <c r="AB52" t="n">
-        <v>42.37991714477539</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>140.6716918945312</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>0.1069957762956619</v>
+        <v>0.1280012726783752</v>
       </c>
     </row>
     <row r="53">
@@ -5321,52 +5005,46 @@
         <v>125.6204147338867</v>
       </c>
       <c r="O53" t="n">
-        <v>138.5797882080078</v>
+        <v>19.50010108947754</v>
       </c>
       <c r="P53" t="n">
-        <v>113.6790161132812</v>
+        <v>0.6130169630050659</v>
       </c>
       <c r="Q53" t="n">
-        <v>19.50010108947754</v>
+        <v>33.63144302368164</v>
       </c>
       <c r="R53" t="n">
-        <v>0.6130169630050659</v>
+        <v>32.52970123291016</v>
       </c>
       <c r="S53" t="n">
-        <v>33.63144302368164</v>
+        <v>7.317648410797119</v>
       </c>
       <c r="T53" t="n">
-        <v>32.52970123291016</v>
+        <v>22.51763534545898</v>
       </c>
       <c r="U53" t="n">
-        <v>7.317648410797119</v>
+        <v>6.808627605438232</v>
       </c>
       <c r="V53" t="n">
-        <v>22.51763534545898</v>
+        <v>3.150119066238403</v>
       </c>
       <c r="W53" t="n">
-        <v>6.808627605438232</v>
+        <v>39.64900970458984</v>
       </c>
       <c r="X53" t="n">
-        <v>3.150119066238403</v>
+        <v>4.391731262207031</v>
       </c>
       <c r="Y53" t="n">
-        <v>39.64900970458984</v>
+        <v>5.237082481384277</v>
       </c>
       <c r="Z53" t="n">
-        <v>4.391731262207031</v>
+        <v>29.8941707611084</v>
       </c>
       <c r="AA53" t="n">
-        <v>5.237082481384277</v>
+        <v>140.6154174804688</v>
       </c>
       <c r="AB53" t="n">
-        <v>29.8941707611084</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>134.4788208007812</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>0.0292603000998497</v>
+        <v>0.07162434607744217</v>
       </c>
     </row>
     <row r="54">
@@ -5413,52 +5091,46 @@
         <v>130.5439300537109</v>
       </c>
       <c r="O54" t="n">
-        <v>145.9610290527344</v>
+        <v>20.68393325805664</v>
       </c>
       <c r="P54" t="n">
-        <v>120.1450653076172</v>
+        <v>0.5113710165023804</v>
       </c>
       <c r="Q54" t="n">
-        <v>20.68393325805664</v>
+        <v>29.11489677429199</v>
       </c>
       <c r="R54" t="n">
-        <v>0.5113710165023804</v>
+        <v>32.22770690917969</v>
       </c>
       <c r="S54" t="n">
-        <v>29.11489677429199</v>
+        <v>6.834695339202881</v>
       </c>
       <c r="T54" t="n">
-        <v>32.22770690917969</v>
+        <v>23.4570426940918</v>
       </c>
       <c r="U54" t="n">
-        <v>6.834695339202881</v>
+        <v>9.621123313903809</v>
       </c>
       <c r="V54" t="n">
-        <v>23.4570426940918</v>
+        <v>3.601846218109131</v>
       </c>
       <c r="W54" t="n">
-        <v>9.621123313903809</v>
+        <v>31.3809928894043</v>
       </c>
       <c r="X54" t="n">
-        <v>3.601846218109131</v>
+        <v>3.920868635177612</v>
       </c>
       <c r="Y54" t="n">
-        <v>31.3809928894043</v>
+        <v>5.330114364624023</v>
       </c>
       <c r="Z54" t="n">
-        <v>3.920868635177612</v>
+        <v>25.50041580200195</v>
       </c>
       <c r="AA54" t="n">
-        <v>5.330114364624023</v>
+        <v>134.4169006347656</v>
       </c>
       <c r="AB54" t="n">
-        <v>25.50041580200195</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>144.9593200683594</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>0.004561763722449541</v>
+        <v>0.07351121306419373</v>
       </c>
     </row>
     <row r="55">
@@ -5505,52 +5177,46 @@
         <v>144.2980499267578</v>
       </c>
       <c r="O55" t="n">
-        <v>153.5695648193359</v>
+        <v>12.76491832733154</v>
       </c>
       <c r="P55" t="n">
-        <v>136.3690643310547</v>
+        <v>0.4572696387767792</v>
       </c>
       <c r="Q55" t="n">
-        <v>12.76491832733154</v>
+        <v>28.00631141662598</v>
       </c>
       <c r="R55" t="n">
-        <v>0.4572696387767792</v>
+        <v>37.87874603271484</v>
       </c>
       <c r="S55" t="n">
-        <v>28.00631141662598</v>
+        <v>7.006141662597656</v>
       </c>
       <c r="T55" t="n">
-        <v>37.87874603271484</v>
+        <v>24.24121475219727</v>
       </c>
       <c r="U55" t="n">
-        <v>7.006141662597656</v>
+        <v>7.373551368713379</v>
       </c>
       <c r="V55" t="n">
-        <v>24.24121475219727</v>
+        <v>2.774009227752686</v>
       </c>
       <c r="W55" t="n">
-        <v>7.373551368713379</v>
+        <v>32.47748947143555</v>
       </c>
       <c r="X55" t="n">
-        <v>2.774009227752686</v>
+        <v>4.362495899200439</v>
       </c>
       <c r="Y55" t="n">
-        <v>32.47748947143555</v>
+        <v>6.035304546356201</v>
       </c>
       <c r="Z55" t="n">
-        <v>4.362495899200439</v>
+        <v>25.21538543701172</v>
       </c>
       <c r="AA55" t="n">
-        <v>6.035304546356201</v>
+        <v>139.2351989746094</v>
       </c>
       <c r="AB55" t="n">
-        <v>25.21538543701172</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>152.0981750488281</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>0.06470637023448944</v>
+        <v>0.1630672216415405</v>
       </c>
     </row>
     <row r="56">
@@ -5597,52 +5263,46 @@
         <v>161.9398956298828</v>
       </c>
       <c r="O56" t="n">
-        <v>178.6456604003906</v>
+        <v>24.71897506713867</v>
       </c>
       <c r="P56" t="n">
-        <v>145.13671875</v>
+        <v>0.5984345674514771</v>
       </c>
       <c r="Q56" t="n">
-        <v>24.71897506713867</v>
+        <v>28.61602783203125</v>
       </c>
       <c r="R56" t="n">
-        <v>0.5984345674514771</v>
+        <v>42.90205383300781</v>
       </c>
       <c r="S56" t="n">
-        <v>28.61602783203125</v>
+        <v>7.409220695495605</v>
       </c>
       <c r="T56" t="n">
-        <v>42.90205383300781</v>
+        <v>23.27337265014648</v>
       </c>
       <c r="U56" t="n">
-        <v>7.409220695495605</v>
+        <v>-6.137146949768066</v>
       </c>
       <c r="V56" t="n">
-        <v>23.27337265014648</v>
+        <v>1.944252490997314</v>
       </c>
       <c r="W56" t="n">
-        <v>-6.137146949768066</v>
+        <v>25.91728782653809</v>
       </c>
       <c r="X56" t="n">
-        <v>1.944252490997314</v>
+        <v>3.537333488464355</v>
       </c>
       <c r="Y56" t="n">
-        <v>25.91728782653809</v>
+        <v>4.341084957122803</v>
       </c>
       <c r="Z56" t="n">
-        <v>3.537333488464355</v>
+        <v>17.65588760375977</v>
       </c>
       <c r="AA56" t="n">
-        <v>4.341084957122803</v>
+        <v>151.2369232177734</v>
       </c>
       <c r="AB56" t="n">
-        <v>17.65588760375977</v>
-      </c>
-      <c r="AC56" t="n">
-        <v>158.5051422119141</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>0.03688492998480797</v>
+        <v>0.08671605587005615</v>
       </c>
     </row>
     <row r="57">
@@ -5689,52 +5349,46 @@
         <v>164.3515930175781</v>
       </c>
       <c r="O57" t="n">
-        <v>175.8758239746094</v>
+        <v>18.50309753417969</v>
       </c>
       <c r="P57" t="n">
-        <v>148.0242309570312</v>
+        <v>0.5551489591598511</v>
       </c>
       <c r="Q57" t="n">
-        <v>18.50309753417969</v>
+        <v>27.16046142578125</v>
       </c>
       <c r="R57" t="n">
-        <v>0.5551489591598511</v>
+        <v>38.01494979858398</v>
       </c>
       <c r="S57" t="n">
-        <v>27.16046142578125</v>
+        <v>7.218314170837402</v>
       </c>
       <c r="T57" t="n">
-        <v>38.01494979858398</v>
+        <v>22.93743133544922</v>
       </c>
       <c r="U57" t="n">
-        <v>7.218314170837402</v>
+        <v>-5.390541076660156</v>
       </c>
       <c r="V57" t="n">
-        <v>22.93743133544922</v>
+        <v>2.292521238327026</v>
       </c>
       <c r="W57" t="n">
-        <v>-5.390541076660156</v>
+        <v>24.08651161193848</v>
       </c>
       <c r="X57" t="n">
-        <v>2.292521238327026</v>
+        <v>3.449843883514404</v>
       </c>
       <c r="Y57" t="n">
-        <v>24.08651161193848</v>
+        <v>3.545763492584229</v>
       </c>
       <c r="Z57" t="n">
-        <v>3.449843883514404</v>
+        <v>47.40625762939453</v>
       </c>
       <c r="AA57" t="n">
-        <v>3.545763492584229</v>
+        <v>153.3920745849609</v>
       </c>
       <c r="AB57" t="n">
-        <v>47.40625762939453</v>
-      </c>
-      <c r="AC57" t="n">
-        <v>163.5199737548828</v>
-      </c>
-      <c r="AD57" t="n">
-        <v>0.119742788374424</v>
+        <v>0.0616227313876152</v>
       </c>
     </row>
     <row r="58">
@@ -5781,52 +5435,46 @@
         <v>143.9396362304688</v>
       </c>
       <c r="O58" t="n">
-        <v>163.1588287353516</v>
+        <v>23.79153823852539</v>
       </c>
       <c r="P58" t="n">
-        <v>128.0063629150391</v>
+        <v>0.5656867027282715</v>
       </c>
       <c r="Q58" t="n">
-        <v>23.79153823852539</v>
+        <v>23.2120246887207</v>
       </c>
       <c r="R58" t="n">
-        <v>0.5656867027282715</v>
+        <v>35.18817520141602</v>
       </c>
       <c r="S58" t="n">
-        <v>23.2120246887207</v>
+        <v>6.126739501953125</v>
       </c>
       <c r="T58" t="n">
-        <v>35.18817520141602</v>
+        <v>21.54163551330566</v>
       </c>
       <c r="U58" t="n">
-        <v>6.126739501953125</v>
+        <v>-0.280524343252182</v>
       </c>
       <c r="V58" t="n">
-        <v>21.54163551330566</v>
+        <v>1.526926040649414</v>
       </c>
       <c r="W58" t="n">
-        <v>-0.280524343252182</v>
+        <v>21.14840316772461</v>
       </c>
       <c r="X58" t="n">
-        <v>1.526926040649414</v>
+        <v>3.005211353302002</v>
       </c>
       <c r="Y58" t="n">
-        <v>21.14840316772461</v>
+        <v>3.146086454391479</v>
       </c>
       <c r="Z58" t="n">
-        <v>3.005211353302002</v>
+        <v>43.07963943481445</v>
       </c>
       <c r="AA58" t="n">
-        <v>3.146086454391479</v>
+        <v>137.7427062988281</v>
       </c>
       <c r="AB58" t="n">
-        <v>43.07963943481445</v>
-      </c>
-      <c r="AC58" t="n">
-        <v>156.5094146728516</v>
-      </c>
-      <c r="AD58" t="n">
-        <v>0.02080773934721947</v>
+        <v>0.1126019805669785</v>
       </c>
     </row>
     <row r="59">
@@ -5873,52 +5521,46 @@
         <v>153.2528076171875</v>
       </c>
       <c r="O59" t="n">
-        <v>172.0325012207031</v>
+        <v>26.68412399291992</v>
       </c>
       <c r="P59" t="n">
-        <v>136.2067718505859</v>
+        <v>0.5172553062438965</v>
       </c>
       <c r="Q59" t="n">
-        <v>26.68412399291992</v>
+        <v>25.08419227600098</v>
       </c>
       <c r="R59" t="n">
-        <v>0.5172553062438965</v>
+        <v>43.10198593139648</v>
       </c>
       <c r="S59" t="n">
-        <v>25.08419227600098</v>
+        <v>6.44745397567749</v>
       </c>
       <c r="T59" t="n">
-        <v>43.10198593139648</v>
+        <v>19.05055999755859</v>
       </c>
       <c r="U59" t="n">
-        <v>6.44745397567749</v>
+        <v>-13.92089939117432</v>
       </c>
       <c r="V59" t="n">
-        <v>19.05055999755859</v>
+        <v>1.647326350212097</v>
       </c>
       <c r="W59" t="n">
-        <v>-13.92089939117432</v>
+        <v>18.04933929443359</v>
       </c>
       <c r="X59" t="n">
-        <v>1.647326350212097</v>
+        <v>2.459927797317505</v>
       </c>
       <c r="Y59" t="n">
-        <v>18.04933929443359</v>
+        <v>2.448485612869263</v>
       </c>
       <c r="Z59" t="n">
-        <v>2.459927797317505</v>
+        <v>36.26430511474609</v>
       </c>
       <c r="AA59" t="n">
-        <v>2.448485612869263</v>
+        <v>150.9310455322266</v>
       </c>
       <c r="AB59" t="n">
-        <v>36.26430511474609</v>
-      </c>
-      <c r="AC59" t="n">
-        <v>149.6174774169922</v>
-      </c>
-      <c r="AD59" t="n">
-        <v>0.07125287503004074</v>
+        <v>0.07933585345745087</v>
       </c>
     </row>
     <row r="60">
@@ -5965,52 +5607,46 @@
         <v>138.9568023681641</v>
       </c>
       <c r="O60" t="n">
-        <v>153.4938049316406</v>
+        <v>22.17879104614258</v>
       </c>
       <c r="P60" t="n">
-        <v>123.4212646484375</v>
+        <v>0.5085161924362183</v>
       </c>
       <c r="Q60" t="n">
-        <v>22.17879104614258</v>
+        <v>22.44058418273926</v>
       </c>
       <c r="R60" t="n">
-        <v>0.5085161924362183</v>
+        <v>44.08889389038086</v>
       </c>
       <c r="S60" t="n">
-        <v>22.44058418273926</v>
+        <v>5.676812171936035</v>
       </c>
       <c r="T60" t="n">
-        <v>44.08889389038086</v>
+        <v>21.97327995300293</v>
       </c>
       <c r="U60" t="n">
-        <v>5.676812171936035</v>
+        <v>20.38937187194824</v>
       </c>
       <c r="V60" t="n">
-        <v>21.97327995300293</v>
+        <v>1.596490621566772</v>
       </c>
       <c r="W60" t="n">
-        <v>20.38937187194824</v>
+        <v>22.43998718261719</v>
       </c>
       <c r="X60" t="n">
-        <v>1.596490621566772</v>
+        <v>2.923040866851807</v>
       </c>
       <c r="Y60" t="n">
-        <v>22.43998718261719</v>
+        <v>3.085860013961792</v>
       </c>
       <c r="Z60" t="n">
-        <v>2.923040866851807</v>
+        <v>42.14406204223633</v>
       </c>
       <c r="AA60" t="n">
-        <v>3.085860013961792</v>
+        <v>140.4792175292969</v>
       </c>
       <c r="AB60" t="n">
-        <v>42.14406204223633</v>
-      </c>
-      <c r="AC60" t="n">
-        <v>151.8926696777344</v>
-      </c>
-      <c r="AD60" t="n">
-        <v>0.02529093064367771</v>
+        <v>0.1085922867059708</v>
       </c>
     </row>
     <row r="61">
@@ -6057,52 +5693,46 @@
         <v>155.7341766357422</v>
       </c>
       <c r="O61" t="n">
-        <v>167.7659149169922</v>
+        <v>18.60775375366211</v>
       </c>
       <c r="P61" t="n">
-        <v>143.6708221435547</v>
+        <v>0.3925101459026337</v>
       </c>
       <c r="Q61" t="n">
-        <v>18.60775375366211</v>
+        <v>26.22741508483887</v>
       </c>
       <c r="R61" t="n">
-        <v>0.3925101459026337</v>
+        <v>43.93213653564453</v>
       </c>
       <c r="S61" t="n">
-        <v>26.22741508483887</v>
+        <v>6.440625190734863</v>
       </c>
       <c r="T61" t="n">
-        <v>43.93213653564453</v>
+        <v>23.93707466125488</v>
       </c>
       <c r="U61" t="n">
-        <v>6.440625190734863</v>
+        <v>11.45831680297852</v>
       </c>
       <c r="V61" t="n">
-        <v>23.93707466125488</v>
+        <v>2.074211597442627</v>
       </c>
       <c r="W61" t="n">
-        <v>11.45831680297852</v>
+        <v>20.32717132568359</v>
       </c>
       <c r="X61" t="n">
-        <v>2.074211597442627</v>
+        <v>2.596281290054321</v>
       </c>
       <c r="Y61" t="n">
-        <v>20.32717132568359</v>
+        <v>2.386001348495483</v>
       </c>
       <c r="Z61" t="n">
-        <v>2.596281290054321</v>
+        <v>32.52439880371094</v>
       </c>
       <c r="AA61" t="n">
-        <v>2.386001348495483</v>
+        <v>159.7430419921875</v>
       </c>
       <c r="AB61" t="n">
-        <v>32.52439880371094</v>
-      </c>
-      <c r="AC61" t="n">
-        <v>170.5230102539062</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>0.06647191941738129</v>
+        <v>0.1384408324956894</v>
       </c>
     </row>
     <row r="62">
@@ -6149,52 +5779,46 @@
         <v>181.8580017089844</v>
       </c>
       <c r="O62" t="n">
-        <v>194.5026092529297</v>
+        <v>20.42053985595703</v>
       </c>
       <c r="P62" t="n">
-        <v>163.9197998046875</v>
+        <v>0.3590455651283264</v>
       </c>
       <c r="Q62" t="n">
-        <v>20.42053985595703</v>
+        <v>30.67476844787598</v>
       </c>
       <c r="R62" t="n">
-        <v>0.3590455651283264</v>
+        <v>46.57451629638672</v>
       </c>
       <c r="S62" t="n">
-        <v>30.67476844787598</v>
+        <v>7.514090538024902</v>
       </c>
       <c r="T62" t="n">
-        <v>46.57451629638672</v>
+        <v>26.45573616027832</v>
       </c>
       <c r="U62" t="n">
-        <v>7.514090538024902</v>
+        <v>22.78320693969727</v>
       </c>
       <c r="V62" t="n">
-        <v>26.45573616027832</v>
+        <v>2.186992406845093</v>
       </c>
       <c r="W62" t="n">
-        <v>22.78320693969727</v>
+        <v>24.15592002868652</v>
       </c>
       <c r="X62" t="n">
-        <v>2.186992406845093</v>
+        <v>2.856737613677979</v>
       </c>
       <c r="Y62" t="n">
-        <v>24.15592002868652</v>
+        <v>2.823376655578613</v>
       </c>
       <c r="Z62" t="n">
-        <v>2.856737613677979</v>
+        <v>38.30396270751953</v>
       </c>
       <c r="AA62" t="n">
-        <v>2.823376655578613</v>
+        <v>189.8167114257812</v>
       </c>
       <c r="AB62" t="n">
-        <v>38.30396270751953</v>
-      </c>
-      <c r="AC62" t="n">
-        <v>201.0644836425781</v>
-      </c>
-      <c r="AD62" t="n">
-        <v>0.1257487833499908</v>
+        <v>0.07394418865442276</v>
       </c>
     </row>
     <row r="63">
@@ -6241,52 +5865,46 @@
         <v>175.7808685302734</v>
       </c>
       <c r="O63" t="n">
-        <v>189.2749481201172</v>
+        <v>13.74820423126221</v>
       </c>
       <c r="P63" t="n">
-        <v>165.4587554931641</v>
+        <v>0.3827995955944061</v>
       </c>
       <c r="Q63" t="n">
-        <v>13.74820423126221</v>
+        <v>29.2058162689209</v>
       </c>
       <c r="R63" t="n">
-        <v>0.3827995955944061</v>
+        <v>45.91104507446289</v>
       </c>
       <c r="S63" t="n">
-        <v>29.2058162689209</v>
+        <v>7.211141586303711</v>
       </c>
       <c r="T63" t="n">
-        <v>45.91104507446289</v>
+        <v>24.97873497009277</v>
       </c>
       <c r="U63" t="n">
-        <v>7.211141586303711</v>
+        <v>-1.721190929412842</v>
       </c>
       <c r="V63" t="n">
-        <v>24.97873497009277</v>
+        <v>2.386592388153076</v>
       </c>
       <c r="W63" t="n">
-        <v>-1.721190929412842</v>
+        <v>21.82428932189941</v>
       </c>
       <c r="X63" t="n">
-        <v>2.386592388153076</v>
+        <v>2.336937189102173</v>
       </c>
       <c r="Y63" t="n">
-        <v>21.82428932189941</v>
+        <v>2.148297548294067</v>
       </c>
       <c r="Z63" t="n">
-        <v>2.336937189102173</v>
+        <v>33.19521331787109</v>
       </c>
       <c r="AA63" t="n">
-        <v>2.148297548294067</v>
+        <v>185.841064453125</v>
       </c>
       <c r="AB63" t="n">
-        <v>33.19521331787109</v>
-      </c>
-      <c r="AC63" t="n">
-        <v>187.529296875</v>
-      </c>
-      <c r="AD63" t="n">
-        <v>0.001360952737741172</v>
+        <v>0.01045759674161673</v>
       </c>
     </row>
     <row r="64">
@@ -6333,52 +5951,46 @@
         <v>187.7845153808594</v>
       </c>
       <c r="O64" t="n">
-        <v>196.6697692871094</v>
+        <v>15.25147533416748</v>
       </c>
       <c r="P64" t="n">
-        <v>175.1350555419922</v>
+        <v>0.3491242229938507</v>
       </c>
       <c r="Q64" t="n">
-        <v>15.25147533416748</v>
+        <v>30.31290626525879</v>
       </c>
       <c r="R64" t="n">
-        <v>0.3491242229938507</v>
+        <v>47.21931457519531</v>
       </c>
       <c r="S64" t="n">
-        <v>30.31290626525879</v>
+        <v>7.67500638961792</v>
       </c>
       <c r="T64" t="n">
-        <v>47.21931457519531</v>
+        <v>24.81435585021973</v>
       </c>
       <c r="U64" t="n">
-        <v>7.67500638961792</v>
+        <v>23.02527236938477</v>
       </c>
       <c r="V64" t="n">
-        <v>24.81435585021973</v>
+        <v>3.250055074691772</v>
       </c>
       <c r="W64" t="n">
-        <v>23.02527236938477</v>
+        <v>26.38553047180176</v>
       </c>
       <c r="X64" t="n">
-        <v>3.250055074691772</v>
+        <v>2.71099853515625</v>
       </c>
       <c r="Y64" t="n">
-        <v>26.38553047180176</v>
+        <v>2.748414993286133</v>
       </c>
       <c r="Z64" t="n">
-        <v>2.71099853515625</v>
+        <v>41.84625625610352</v>
       </c>
       <c r="AA64" t="n">
-        <v>2.748414993286133</v>
+        <v>202.255126953125</v>
       </c>
       <c r="AB64" t="n">
-        <v>41.84625625610352</v>
-      </c>
-      <c r="AC64" t="n">
-        <v>197.7053070068359</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>0.1177756264805794</v>
+        <v>0.1376216560602188</v>
       </c>
     </row>
     <row r="65">
@@ -6425,52 +6037,46 @@
         <v>174.4204406738281</v>
       </c>
       <c r="O65" t="n">
-        <v>188.0330200195312</v>
+        <v>14.51498126983643</v>
       </c>
       <c r="P65" t="n">
-        <v>164.0095062255859</v>
+        <v>0.404264897108078</v>
       </c>
       <c r="Q65" t="n">
-        <v>14.51498126983643</v>
+        <v>26.83670234680176</v>
       </c>
       <c r="R65" t="n">
-        <v>0.404264897108078</v>
+        <v>36.54386901855469</v>
       </c>
       <c r="S65" t="n">
-        <v>26.83670234680176</v>
+        <v>7.021926403045654</v>
       </c>
       <c r="T65" t="n">
-        <v>36.54386901855469</v>
+        <v>24.16639137268066</v>
       </c>
       <c r="U65" t="n">
-        <v>7.021926403045654</v>
+        <v>8.662229537963867</v>
       </c>
       <c r="V65" t="n">
-        <v>24.16639137268066</v>
+        <v>7.137001514434814</v>
       </c>
       <c r="W65" t="n">
-        <v>8.662229537963867</v>
+        <v>26.55577278137207</v>
       </c>
       <c r="X65" t="n">
-        <v>7.137001514434814</v>
+        <v>2.540561676025391</v>
       </c>
       <c r="Y65" t="n">
-        <v>26.55577278137207</v>
+        <v>2.750647783279419</v>
       </c>
       <c r="Z65" t="n">
-        <v>2.540561676025391</v>
+        <v>33.70637893676758</v>
       </c>
       <c r="AA65" t="n">
-        <v>2.750647783279419</v>
+        <v>182.8037261962891</v>
       </c>
       <c r="AB65" t="n">
-        <v>33.70637893676758</v>
-      </c>
-      <c r="AC65" t="n">
-        <v>180.6590576171875</v>
-      </c>
-      <c r="AD65" t="n">
-        <v>0.1341969668865204</v>
+        <v>0.1208904683589935</v>
       </c>
     </row>
     <row r="66">
@@ -6517,52 +6123,46 @@
         <v>204.9029541015625</v>
       </c>
       <c r="O66" t="n">
-        <v>233.7269439697266</v>
+        <v>39.37492752075195</v>
       </c>
       <c r="P66" t="n">
-        <v>171.9913024902344</v>
+        <v>0.4384232759475708</v>
       </c>
       <c r="Q66" t="n">
-        <v>39.37492752075195</v>
+        <v>31.52838897705078</v>
       </c>
       <c r="R66" t="n">
-        <v>0.4384232759475708</v>
+        <v>42.75056838989258</v>
       </c>
       <c r="S66" t="n">
-        <v>31.52838897705078</v>
+        <v>8.294495582580566</v>
       </c>
       <c r="T66" t="n">
-        <v>42.75056838989258</v>
+        <v>29.4046630859375</v>
       </c>
       <c r="U66" t="n">
-        <v>8.294495582580566</v>
+        <v>14.54848861694336</v>
       </c>
       <c r="V66" t="n">
-        <v>29.4046630859375</v>
+        <v>3.358586072921753</v>
       </c>
       <c r="W66" t="n">
-        <v>14.54848861694336</v>
+        <v>30.70771217346191</v>
       </c>
       <c r="X66" t="n">
-        <v>3.358586072921753</v>
+        <v>2.624993324279785</v>
       </c>
       <c r="Y66" t="n">
-        <v>30.70771217346191</v>
+        <v>2.866848945617676</v>
       </c>
       <c r="Z66" t="n">
-        <v>2.624993324279785</v>
+        <v>34.78760147094727</v>
       </c>
       <c r="AA66" t="n">
-        <v>2.866848945617676</v>
+        <v>211.0220947265625</v>
       </c>
       <c r="AB66" t="n">
-        <v>34.78760147094727</v>
-      </c>
-      <c r="AC66" t="n">
-        <v>227.5518035888672</v>
-      </c>
-      <c r="AD66" t="n">
-        <v>0.0138425724580884</v>
+        <v>0.06340476870536804</v>
       </c>
     </row>
     <row r="67">
@@ -6609,52 +6209,46 @@
         <v>224.4019012451172</v>
       </c>
       <c r="O67" t="n">
-        <v>235.6516571044922</v>
+        <v>18.80623817443848</v>
       </c>
       <c r="P67" t="n">
-        <v>206.2653656005859</v>
+        <v>0.3330690264701843</v>
       </c>
       <c r="Q67" t="n">
-        <v>18.80623817443848</v>
+        <v>33.63595199584961</v>
       </c>
       <c r="R67" t="n">
-        <v>0.3330690264701843</v>
+        <v>51.47481155395508</v>
       </c>
       <c r="S67" t="n">
-        <v>33.63595199584961</v>
+        <v>8.879724502563477</v>
       </c>
       <c r="T67" t="n">
-        <v>51.47481155395508</v>
+        <v>28.8787956237793</v>
       </c>
       <c r="U67" t="n">
-        <v>8.879724502563477</v>
+        <v>3.618277788162231</v>
       </c>
       <c r="V67" t="n">
-        <v>28.8787956237793</v>
+        <v>4.871565818786621</v>
       </c>
       <c r="W67" t="n">
-        <v>3.618277788162231</v>
+        <v>25.83989334106445</v>
       </c>
       <c r="X67" t="n">
-        <v>4.871565818786621</v>
+        <v>2.643310785293579</v>
       </c>
       <c r="Y67" t="n">
-        <v>25.83989334106445</v>
+        <v>2.786140203475952</v>
       </c>
       <c r="Z67" t="n">
-        <v>2.643310785293579</v>
+        <v>38.22232437133789</v>
       </c>
       <c r="AA67" t="n">
-        <v>2.786140203475952</v>
+        <v>221.7146606445312</v>
       </c>
       <c r="AB67" t="n">
-        <v>38.22232437133789</v>
-      </c>
-      <c r="AC67" t="n">
-        <v>241.8290252685547</v>
-      </c>
-      <c r="AD67" t="n">
-        <v>0.02179422974586487</v>
+        <v>0.06695041060447693</v>
       </c>
     </row>
     <row r="68">
@@ -6701,52 +6295,46 @@
         <v>236.5585479736328</v>
       </c>
       <c r="O68" t="n">
-        <v>258.3966674804688</v>
+        <v>17.71612358093262</v>
       </c>
       <c r="P68" t="n">
-        <v>221.2323455810547</v>
+        <v>0.3296436071395874</v>
       </c>
       <c r="Q68" t="n">
-        <v>17.71612358093262</v>
+        <v>38.2059211730957</v>
       </c>
       <c r="R68" t="n">
-        <v>0.3296436071395874</v>
+        <v>62.75919342041016</v>
       </c>
       <c r="S68" t="n">
-        <v>38.2059211730957</v>
+        <v>9.160417556762695</v>
       </c>
       <c r="T68" t="n">
-        <v>62.75919342041016</v>
+        <v>32.99211883544922</v>
       </c>
       <c r="U68" t="n">
-        <v>9.160417556762695</v>
+        <v>4.902134895324707</v>
       </c>
       <c r="V68" t="n">
-        <v>32.99211883544922</v>
+        <v>7.408807754516602</v>
       </c>
       <c r="W68" t="n">
-        <v>4.902134895324707</v>
+        <v>29.46272277832031</v>
       </c>
       <c r="X68" t="n">
-        <v>7.408807754516602</v>
+        <v>3.019292116165161</v>
       </c>
       <c r="Y68" t="n">
-        <v>29.46272277832031</v>
+        <v>3.175325870513916</v>
       </c>
       <c r="Z68" t="n">
-        <v>3.019292116165161</v>
+        <v>42.68400192260742</v>
       </c>
       <c r="AA68" t="n">
-        <v>3.175325870513916</v>
+        <v>233.576904296875</v>
       </c>
       <c r="AB68" t="n">
-        <v>42.68400192260742</v>
-      </c>
-      <c r="AC68" t="n">
-        <v>249.4050750732422</v>
-      </c>
-      <c r="AD68" t="n">
-        <v>0.1155077219009399</v>
+        <v>0.05557074025273323</v>
       </c>
     </row>
     <row r="69">
@@ -6793,52 +6381,46 @@
         <v>220.5968627929688</v>
       </c>
       <c r="O69" t="n">
-        <v>246.7763977050781</v>
+        <v>33.78957366943359</v>
       </c>
       <c r="P69" t="n">
-        <v>172.1941986083984</v>
+        <v>0.3961590826511383</v>
       </c>
       <c r="Q69" t="n">
-        <v>33.78957366943359</v>
+        <v>34.4647216796875</v>
       </c>
       <c r="R69" t="n">
-        <v>0.3961590826511383</v>
+        <v>49.64713287353516</v>
       </c>
       <c r="S69" t="n">
-        <v>34.4647216796875</v>
+        <v>8.373245239257812</v>
       </c>
       <c r="T69" t="n">
-        <v>49.64713287353516</v>
+        <v>29.24995994567871</v>
       </c>
       <c r="U69" t="n">
-        <v>8.373245239257812</v>
+        <v>-9.556231498718262</v>
       </c>
       <c r="V69" t="n">
-        <v>29.24995994567871</v>
+        <v>7.592160224914551</v>
       </c>
       <c r="W69" t="n">
-        <v>-9.556231498718262</v>
+        <v>25.11577987670898</v>
       </c>
       <c r="X69" t="n">
-        <v>7.592160224914551</v>
+        <v>3.877710819244385</v>
       </c>
       <c r="Y69" t="n">
-        <v>25.11577987670898</v>
+        <v>4.874722480773926</v>
       </c>
       <c r="Z69" t="n">
-        <v>3.877710819244385</v>
+        <v>65.2476806640625</v>
       </c>
       <c r="AA69" t="n">
-        <v>4.874722480773926</v>
+        <v>222.5919189453125</v>
       </c>
       <c r="AB69" t="n">
-        <v>65.2476806640625</v>
-      </c>
-      <c r="AC69" t="n">
-        <v>228.6914825439453</v>
-      </c>
-      <c r="AD69" t="n">
-        <v>0.101232722401619</v>
+        <v>0.07660429924726486</v>
       </c>
     </row>
     <row r="70">
@@ -6885,51 +6467,45 @@
         <v>205.5404205322266</v>
       </c>
       <c r="O70" t="n">
-        <v>214.3999938964844</v>
+        <v>10.94755268096924</v>
       </c>
       <c r="P70" t="n">
-        <v>195.2700042724609</v>
+        <v>0.3594817817211151</v>
       </c>
       <c r="Q70" t="n">
-        <v>10.94755268096924</v>
+        <v>31.54419708251953</v>
       </c>
       <c r="R70" t="n">
-        <v>0.3594817817211151</v>
+        <v>45.95758819580078</v>
       </c>
       <c r="S70" t="n">
-        <v>31.54419708251953</v>
+        <v>7.665639877319336</v>
       </c>
       <c r="T70" t="n">
-        <v>45.95758819580078</v>
+        <v>28.29812431335449</v>
       </c>
       <c r="U70" t="n">
-        <v>7.665639877319336</v>
+        <v>32.98785400390625</v>
       </c>
       <c r="V70" t="n">
-        <v>28.29812431335449</v>
+        <v>7.596736431121826</v>
       </c>
       <c r="W70" t="n">
-        <v>32.98785400390625</v>
+        <v>26.74876403808594</v>
       </c>
       <c r="X70" t="n">
-        <v>7.596736431121826</v>
+        <v>5.164999485015869</v>
       </c>
       <c r="Y70" t="n">
-        <v>26.74876403808594</v>
+        <v>5.988396644592285</v>
       </c>
       <c r="Z70" t="n">
-        <v>5.164999485015869</v>
+        <v>113.4768142700195</v>
       </c>
       <c r="AA70" t="n">
-        <v>5.988396644592285</v>
-      </c>
-      <c r="AB70" t="n">
-        <v>113.4768142700195</v>
-      </c>
-      <c r="AC70" t="n">
-        <v>215.703369140625</v>
-      </c>
-      <c r="AD70" t="inlineStr"/>
+        <v>210.2480773925781</v>
+      </c>
+      <c r="AB70" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/results/LSTMAttentionModel/AAPL.O_pre.xlsx
+++ b/results/LSTMAttentionModel/AAPL.O_pre.xlsx
@@ -637,28 +637,28 @@
         <v>21.04983520507812</v>
       </c>
       <c r="U2" t="n">
-        <v>-5.047659873962402</v>
+        <v>-5.634039402008057</v>
       </c>
       <c r="V2" t="n">
-        <v>1.819193840026855</v>
+        <v>1.307273268699646</v>
       </c>
       <c r="W2" t="n">
-        <v>16.66651916503906</v>
+        <v>28.58160972595215</v>
       </c>
       <c r="X2" t="n">
-        <v>3.08692193031311</v>
+        <v>6.484896183013916</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.49584436416626</v>
+        <v>3.591259241104126</v>
       </c>
       <c r="Z2" t="n">
-        <v>44.03197860717773</v>
+        <v>49.75868225097656</v>
       </c>
       <c r="AA2" t="n">
-        <v>5.441940307617188</v>
+        <v>5.194214820861816</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.2390922904014587</v>
+        <v>0.2028026431798935</v>
       </c>
     </row>
     <row r="3">
@@ -723,28 +723,28 @@
         <v>10.28167057037354</v>
       </c>
       <c r="U3" t="n">
-        <v>-20.69004821777344</v>
+        <v>-14.23151302337646</v>
       </c>
       <c r="V3" t="n">
-        <v>1.833656430244446</v>
+        <v>1.62799072265625</v>
       </c>
       <c r="W3" t="n">
-        <v>13.84043407440186</v>
+        <v>15.74965476989746</v>
       </c>
       <c r="X3" t="n">
-        <v>2.18242883682251</v>
+        <v>3.531647205352783</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.616702079772949</v>
+        <v>1.909029722213745</v>
       </c>
       <c r="Z3" t="n">
-        <v>29.77334785461426</v>
+        <v>39.10539245605469</v>
       </c>
       <c r="AA3" t="n">
-        <v>3.986872673034668</v>
+        <v>3.731802940368652</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.3112374842166901</v>
+        <v>0.2641603946685791</v>
       </c>
     </row>
     <row r="4">
@@ -809,28 +809,28 @@
         <v>7.321980953216553</v>
       </c>
       <c r="U4" t="n">
-        <v>-14.48737049102783</v>
+        <v>-10.15706443786621</v>
       </c>
       <c r="V4" t="n">
-        <v>1.60993504524231</v>
+        <v>1.579285383224487</v>
       </c>
       <c r="W4" t="n">
-        <v>10.11098575592041</v>
+        <v>13.33040237426758</v>
       </c>
       <c r="X4" t="n">
-        <v>1.709287524223328</v>
+        <v>2.98119854927063</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.430145621299744</v>
+        <v>1.57668399810791</v>
       </c>
       <c r="Z4" t="n">
-        <v>25.37608909606934</v>
+        <v>31.18879318237305</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.63586950302124</v>
+        <v>2.605133533477783</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.1515829265117645</v>
+        <v>0.1651695668697357</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         <v>10.74318790435791</v>
       </c>
       <c r="U5" t="n">
-        <v>25.12178421020508</v>
+        <v>7.357471942901611</v>
       </c>
       <c r="V5" t="n">
-        <v>1.623918175697327</v>
+        <v>1.860265970230103</v>
       </c>
       <c r="W5" t="n">
-        <v>16.68349075317383</v>
+        <v>16.57219886779785</v>
       </c>
       <c r="X5" t="n">
-        <v>2.016337156295776</v>
+        <v>3.729405164718628</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.907207250595093</v>
+        <v>2.074105739593506</v>
       </c>
       <c r="Z5" t="n">
-        <v>17.57087898254395</v>
+        <v>44.34029769897461</v>
       </c>
       <c r="AA5" t="n">
-        <v>3.042696237564087</v>
+        <v>3.557500600814819</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.3371503949165344</v>
+        <v>0.1436519473791122</v>
       </c>
     </row>
     <row r="6">
@@ -981,28 +981,28 @@
         <v>12.37749671936035</v>
       </c>
       <c r="U6" t="n">
-        <v>25.0733642578125</v>
+        <v>15.15013122558594</v>
       </c>
       <c r="V6" t="n">
-        <v>1.52392566204071</v>
+        <v>1.548855185508728</v>
       </c>
       <c r="W6" t="n">
-        <v>20.85316467285156</v>
+        <v>20.36781120300293</v>
       </c>
       <c r="X6" t="n">
-        <v>2.622077465057373</v>
+        <v>4.588391780853271</v>
       </c>
       <c r="Y6" t="n">
-        <v>2.14692497253418</v>
+        <v>2.572827100753784</v>
       </c>
       <c r="Z6" t="n">
-        <v>22.55112838745117</v>
+        <v>55.65212631225586</v>
       </c>
       <c r="AA6" t="n">
-        <v>4.354167461395264</v>
+        <v>4.604720115661621</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.2151022404432297</v>
+        <v>0.1489859223365784</v>
       </c>
     </row>
     <row r="7">
@@ -1067,28 +1067,26 @@
         <v>17.49846458435059</v>
       </c>
       <c r="U7" t="n">
-        <v>16.09353637695312</v>
+        <v>13.62307357788086</v>
       </c>
       <c r="V7" t="n">
-        <v>1.41222882270813</v>
+        <v>1.373470187187195</v>
       </c>
       <c r="W7" t="n">
-        <v>24.5084285736084</v>
+        <v>22.31524467468262</v>
       </c>
       <c r="X7" t="n">
-        <v>2.835010051727295</v>
+        <v>4.633552074432373</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.455844163894653</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>22.64133644104004</v>
-      </c>
+        <v>2.906454086303711</v>
+      </c>
+      <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="n">
-        <v>5.777032375335693</v>
+        <v>5.919186115264893</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.04902596399188042</v>
+        <v>0.02383281104266644</v>
       </c>
     </row>
     <row r="8">
@@ -1153,28 +1151,28 @@
         <v>15.34305191040039</v>
       </c>
       <c r="U8" t="n">
-        <v>4.018238544464111</v>
+        <v>4.210824966430664</v>
       </c>
       <c r="V8" t="n">
-        <v>1.360699534416199</v>
+        <v>1.115650773048401</v>
       </c>
       <c r="W8" t="n">
-        <v>28.65190696716309</v>
+        <v>23.86716079711914</v>
       </c>
       <c r="X8" t="n">
-        <v>2.972814798355103</v>
+        <v>4.768695831298828</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.755944490432739</v>
+        <v>3.036590337753296</v>
       </c>
       <c r="Z8" t="n">
-        <v>25.83882331848145</v>
+        <v>37.85997772216797</v>
       </c>
       <c r="AA8" t="n">
-        <v>6.995014667510986</v>
+        <v>6.417538642883301</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.06200628727674484</v>
+        <v>0.02239817194640636</v>
       </c>
     </row>
     <row r="9">
@@ -1239,28 +1237,28 @@
         <v>17.48381996154785</v>
       </c>
       <c r="U9" t="n">
-        <v>14.27192306518555</v>
+        <v>11.87247085571289</v>
       </c>
       <c r="V9" t="n">
-        <v>1.405836939811707</v>
+        <v>1.171059131622314</v>
       </c>
       <c r="W9" t="n">
-        <v>27.75752258300781</v>
+        <v>28.89628410339355</v>
       </c>
       <c r="X9" t="n">
-        <v>2.65974497795105</v>
+        <v>5.791522026062012</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.35475492477417</v>
+        <v>3.777551174163818</v>
       </c>
       <c r="Z9" t="n">
-        <v>39.32548141479492</v>
+        <v>40.28518676757812</v>
       </c>
       <c r="AA9" t="n">
-        <v>7.381354331970215</v>
+        <v>7.282006740570068</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.04445232078433037</v>
+        <v>0.05870166420936584</v>
       </c>
     </row>
     <row r="10">
@@ -1325,28 +1323,28 @@
         <v>14.49658107757568</v>
       </c>
       <c r="U10" t="n">
-        <v>-9.295836448669434</v>
+        <v>-9.674491882324219</v>
       </c>
       <c r="V10" t="n">
-        <v>1.654023766517639</v>
+        <v>1.395514965057373</v>
       </c>
       <c r="W10" t="n">
-        <v>23.01450347900391</v>
+        <v>27.29011154174805</v>
       </c>
       <c r="X10" t="n">
-        <v>2.279673099517822</v>
+        <v>5.482837677001953</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.962317585945129</v>
+        <v>3.641906261444092</v>
       </c>
       <c r="Z10" t="n">
-        <v>38.72361373901367</v>
+        <v>33.96445465087891</v>
       </c>
       <c r="AA10" t="n">
-        <v>8.366625785827637</v>
+        <v>8.281941413879395</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.02262122742831707</v>
+        <v>0.01262735016644001</v>
       </c>
     </row>
     <row r="11">
@@ -1411,28 +1409,28 @@
         <v>15.18551445007324</v>
       </c>
       <c r="U11" t="n">
-        <v>16.72803497314453</v>
+        <v>11.04558372497559</v>
       </c>
       <c r="V11" t="n">
-        <v>1.505271077156067</v>
+        <v>1.093299031257629</v>
       </c>
       <c r="W11" t="n">
-        <v>23.54470443725586</v>
+        <v>16.3502311706543</v>
       </c>
       <c r="X11" t="n">
-        <v>2.748006820678711</v>
+        <v>4.14055347442627</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.418158769607544</v>
+        <v>2.584209203720093</v>
       </c>
       <c r="Z11" t="n">
-        <v>45.13652420043945</v>
+        <v>38.91488265991211</v>
       </c>
       <c r="AA11" t="n">
-        <v>8.83884334564209</v>
+        <v>9.34405517578125</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.08956421911716461</v>
+        <v>0.03065395727753639</v>
       </c>
     </row>
     <row r="12">
@@ -1497,28 +1495,28 @@
         <v>13.82059764862061</v>
       </c>
       <c r="U12" t="n">
-        <v>11.36907863616943</v>
+        <v>9.226625442504883</v>
       </c>
       <c r="V12" t="n">
-        <v>1.263121366500854</v>
+        <v>0.9958296418190002</v>
       </c>
       <c r="W12" t="n">
-        <v>19.12104988098145</v>
+        <v>16.92890167236328</v>
       </c>
       <c r="X12" t="n">
-        <v>3.201817989349365</v>
+        <v>4.520126342773438</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.654244661331177</v>
+        <v>2.795507907867432</v>
       </c>
       <c r="Z12" t="n">
-        <v>50.21112823486328</v>
+        <v>52.04498672485352</v>
       </c>
       <c r="AA12" t="n">
-        <v>10.10127925872803</v>
+        <v>10.21602439880371</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.02593476884067059</v>
+        <v>0.01441159378737211</v>
       </c>
     </row>
     <row r="13">
@@ -1583,28 +1581,28 @@
         <v>12.24912071228027</v>
       </c>
       <c r="U13" t="n">
-        <v>0.207108274102211</v>
+        <v>3.829482555389404</v>
       </c>
       <c r="V13" t="n">
-        <v>2.953497648239136</v>
+        <v>1.030138373374939</v>
       </c>
       <c r="W13" t="n">
-        <v>16.58693313598633</v>
+        <v>16.63385391235352</v>
       </c>
       <c r="X13" t="n">
-        <v>2.841570377349854</v>
+        <v>4.489415645599365</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.338920116424561</v>
+        <v>2.837959289550781</v>
       </c>
       <c r="Z13" t="n">
-        <v>29.83127021789551</v>
+        <v>54.06930923461914</v>
       </c>
       <c r="AA13" t="n">
-        <v>10.53492450714111</v>
+        <v>10.52864074707031</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.02427528239786625</v>
+        <v>0.02369294501841068</v>
       </c>
     </row>
     <row r="14">
@@ -1669,28 +1667,28 @@
         <v>10.63031959533691</v>
       </c>
       <c r="U14" t="n">
-        <v>4.7923583984375</v>
+        <v>1.139918684959412</v>
       </c>
       <c r="V14" t="n">
-        <v>1.245115995407104</v>
+        <v>0.9646627902984619</v>
       </c>
       <c r="W14" t="n">
-        <v>16.23420906066895</v>
+        <v>16.6813850402832</v>
       </c>
       <c r="X14" t="n">
-        <v>2.479116916656494</v>
+        <v>4.568240165710449</v>
       </c>
       <c r="Y14" t="n">
-        <v>2.232614040374756</v>
+        <v>2.971244335174561</v>
       </c>
       <c r="Z14" t="n">
-        <v>29.54406929016113</v>
+        <v>58.24845123291016</v>
       </c>
       <c r="AA14" t="n">
-        <v>10.4143705368042</v>
+        <v>11.08014488220215</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.1167040094733238</v>
+        <v>0.04960444569587708</v>
       </c>
     </row>
     <row r="15">
@@ -1755,28 +1753,26 @@
         <v>10.43072986602783</v>
       </c>
       <c r="U15" t="n">
-        <v>3.304326295852661</v>
+        <v>-3.5322585105896</v>
       </c>
       <c r="V15" t="n">
-        <v>1.327752470970154</v>
+        <v>1.282196283340454</v>
       </c>
       <c r="W15" t="n">
-        <v>14.98818492889404</v>
+        <v>10.47364330291748</v>
       </c>
       <c r="X15" t="n">
-        <v>2.13383150100708</v>
+        <v>3.190093040466309</v>
       </c>
       <c r="Y15" t="n">
-        <v>2.098476648330688</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>26.87973213195801</v>
-      </c>
+        <v>2.014519929885864</v>
+      </c>
+      <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="n">
-        <v>11.79712677001953</v>
+        <v>12.61873817443848</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.01543000526726246</v>
+        <v>0.05068507418036461</v>
       </c>
     </row>
     <row r="16">
@@ -1841,28 +1837,26 @@
         <v>8.62354564666748</v>
       </c>
       <c r="U16" t="n">
-        <v>6.866599559783936</v>
+        <v>11.33297061920166</v>
       </c>
       <c r="V16" t="n">
-        <v>0.9006818532943726</v>
+        <v>1.033739805221558</v>
       </c>
       <c r="W16" t="n">
-        <v>16.70068359375</v>
+        <v>11.56019401550293</v>
       </c>
       <c r="X16" t="n">
-        <v>2.303891897201538</v>
+        <v>3.290587186813354</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.411696195602417</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>25.36821365356445</v>
-      </c>
+        <v>2.032882452011108</v>
+      </c>
+      <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="n">
-        <v>12.26168441772461</v>
+        <v>12.71052074432373</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.3374490141868591</v>
+        <v>0.2902207672595978</v>
       </c>
     </row>
     <row r="17">
@@ -1927,28 +1921,26 @@
         <v>9.843752861022949</v>
       </c>
       <c r="U17" t="n">
-        <v>12.83097267150879</v>
+        <v>6.347525119781494</v>
       </c>
       <c r="V17" t="n">
-        <v>0.8472976684570312</v>
+        <v>0.9666728973388672</v>
       </c>
       <c r="W17" t="n">
-        <v>18.92729568481445</v>
+        <v>13.52101516723633</v>
       </c>
       <c r="X17" t="n">
-        <v>2.201842069625854</v>
+        <v>4.04460334777832</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.226545333862305</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>27.00517082214355</v>
-      </c>
+        <v>2.60976243019104</v>
+      </c>
+      <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="n">
-        <v>17.23787879943848</v>
+        <v>18.04927825927734</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.01141518261283636</v>
+        <v>0.03405265882611275</v>
       </c>
     </row>
     <row r="18">
@@ -2013,28 +2005,26 @@
         <v>10.77484607696533</v>
       </c>
       <c r="U18" t="n">
-        <v>-4.072647571563721</v>
+        <v>0.03724002465605736</v>
       </c>
       <c r="V18" t="n">
-        <v>0.9274789094924927</v>
+        <v>1.020491719245911</v>
       </c>
       <c r="W18" t="n">
-        <v>17.26951789855957</v>
+        <v>13.3720064163208</v>
       </c>
       <c r="X18" t="n">
-        <v>1.864514231681824</v>
+        <v>4.135285377502441</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.856360673904419</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>24.66205406188965</v>
-      </c>
+        <v>2.741250276565552</v>
+      </c>
+      <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="n">
-        <v>18.53134727478027</v>
+        <v>18.44598579406738</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.0532756932079792</v>
+        <v>0.05814987793564796</v>
       </c>
     </row>
     <row r="19">
@@ -2099,28 +2089,28 @@
         <v>11.23534297943115</v>
       </c>
       <c r="U19" t="n">
-        <v>0.7715702056884766</v>
+        <v>5.928390502929688</v>
       </c>
       <c r="V19" t="n">
-        <v>0.8952569365501404</v>
+        <v>0.9348261952400208</v>
       </c>
       <c r="W19" t="n">
-        <v>18.21524429321289</v>
+        <v>8.84171199798584</v>
       </c>
       <c r="X19" t="n">
-        <v>1.963454961776733</v>
+        <v>2.786454677581787</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.887281775474548</v>
+        <v>1.941445708274841</v>
       </c>
       <c r="Z19" t="n">
-        <v>26.16182327270508</v>
+        <v>615.8834838867188</v>
       </c>
       <c r="AA19" t="n">
-        <v>21.02486228942871</v>
+        <v>19.11980438232422</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.2154716551303864</v>
+        <v>0.1373028755187988</v>
       </c>
     </row>
     <row r="20">
@@ -2185,28 +2175,28 @@
         <v>8.523487091064453</v>
       </c>
       <c r="U20" t="n">
-        <v>2.544996023178101</v>
+        <v>7.873519897460938</v>
       </c>
       <c r="V20" t="n">
-        <v>0.8655732870101929</v>
+        <v>0.8945448994636536</v>
       </c>
       <c r="W20" t="n">
-        <v>21.45611190795898</v>
+        <v>11.56591892242432</v>
       </c>
       <c r="X20" t="n">
-        <v>2.15964674949646</v>
+        <v>2.780123472213745</v>
       </c>
       <c r="Y20" t="n">
-        <v>2.020870685577393</v>
+        <v>1.679696917533875</v>
       </c>
       <c r="Z20" t="n">
-        <v>28.87961769104004</v>
+        <v>264.3125305175781</v>
       </c>
       <c r="AA20" t="n">
-        <v>17.67413330078125</v>
+        <v>16.05204772949219</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.235776960849762</v>
+        <v>0.1585509777069092</v>
       </c>
     </row>
     <row r="21">
@@ -2271,28 +2261,28 @@
         <v>6.90217399597168</v>
       </c>
       <c r="U21" t="n">
-        <v>0.9999461770057678</v>
+        <v>7.854075908660889</v>
       </c>
       <c r="V21" t="n">
-        <v>0.8807924389839172</v>
+        <v>0.9164234399795532</v>
       </c>
       <c r="W21" t="n">
-        <v>20.43403816223145</v>
+        <v>9.13458251953125</v>
       </c>
       <c r="X21" t="n">
-        <v>2.160519361495972</v>
+        <v>2.463752031326294</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.987677097320557</v>
+        <v>1.376566767692566</v>
       </c>
       <c r="Z21" t="n">
-        <v>30.57647132873535</v>
+        <v>210.5958557128906</v>
       </c>
       <c r="AA21" t="n">
-        <v>14.47552394866943</v>
+        <v>13.00516700744629</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.08732942491769791</v>
+        <v>0.01585660316050053</v>
       </c>
     </row>
     <row r="22">
@@ -2357,28 +2347,28 @@
         <v>7.435333728790283</v>
       </c>
       <c r="U22" t="n">
-        <v>9.829130172729492</v>
+        <v>9.766654014587402</v>
       </c>
       <c r="V22" t="n">
-        <v>0.9377158880233765</v>
+        <v>0.8700246214866638</v>
       </c>
       <c r="W22" t="n">
-        <v>21.52130508422852</v>
+        <v>9.12110710144043</v>
       </c>
       <c r="X22" t="n">
-        <v>2.496304035186768</v>
+        <v>2.715911865234375</v>
       </c>
       <c r="Y22" t="n">
-        <v>2.188558578491211</v>
+        <v>1.422219276428223</v>
       </c>
       <c r="Z22" t="n">
-        <v>35.81851196289062</v>
+        <v>212.0466918945312</v>
       </c>
       <c r="AA22" t="n">
-        <v>14.13166046142578</v>
+        <v>13.25732326507568</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.05575329437851906</v>
+        <v>0.1253815591335297</v>
       </c>
     </row>
     <row r="23">
@@ -2443,28 +2433,28 @@
         <v>8.970125198364258</v>
       </c>
       <c r="U23" t="n">
-        <v>19.16508102416992</v>
+        <v>6.101253509521484</v>
       </c>
       <c r="V23" t="n">
-        <v>0.9091435074806213</v>
+        <v>0.7889309525489807</v>
       </c>
       <c r="W23" t="n">
-        <v>22.77664947509766</v>
+        <v>12.87225151062012</v>
       </c>
       <c r="X23" t="n">
-        <v>2.699915647506714</v>
+        <v>2.951295137405396</v>
       </c>
       <c r="Y23" t="n">
-        <v>2.268141031265259</v>
+        <v>1.585233211517334</v>
       </c>
       <c r="Z23" t="n">
-        <v>41.77789306640625</v>
+        <v>74.89229583740234</v>
       </c>
       <c r="AA23" t="n">
-        <v>15.92185306549072</v>
+        <v>15.8313159942627</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.05728094279766083</v>
+        <v>0.06332738697528839</v>
       </c>
     </row>
     <row r="24">
@@ -2529,28 +2519,28 @@
         <v>9.361288070678711</v>
       </c>
       <c r="U24" t="n">
-        <v>6.341082096099854</v>
+        <v>2.597421407699585</v>
       </c>
       <c r="V24" t="n">
-        <v>1.108751535415649</v>
+        <v>0.8176382780075073</v>
       </c>
       <c r="W24" t="n">
-        <v>24.64662170410156</v>
+        <v>11.96749877929688</v>
       </c>
       <c r="X24" t="n">
-        <v>2.847905158996582</v>
+        <v>2.988199710845947</v>
       </c>
       <c r="Y24" t="n">
-        <v>2.574187278747559</v>
+        <v>1.679608583450317</v>
       </c>
       <c r="Z24" t="n">
-        <v>41.48581314086914</v>
+        <v>101.5543060302734</v>
       </c>
       <c r="AA24" t="n">
-        <v>17.99527931213379</v>
+        <v>17.6680793762207</v>
       </c>
       <c r="AB24" t="n">
-        <v>0.08283329010009766</v>
+        <v>0.06584803014993668</v>
       </c>
     </row>
     <row r="25">
@@ -2615,28 +2605,28 @@
         <v>8.676983833312988</v>
       </c>
       <c r="U25" t="n">
-        <v>3.253169775009155</v>
+        <v>5.435572147369385</v>
       </c>
       <c r="V25" t="n">
-        <v>1.18176805973053</v>
+        <v>0.8957053422927856</v>
       </c>
       <c r="W25" t="n">
-        <v>26.20271492004395</v>
+        <v>11.98431301116943</v>
       </c>
       <c r="X25" t="n">
-        <v>2.977883815765381</v>
+        <v>2.932194471359253</v>
       </c>
       <c r="Y25" t="n">
-        <v>2.383416891098022</v>
+        <v>1.590180993080139</v>
       </c>
       <c r="Z25" t="n">
-        <v>29.4829044342041</v>
+        <v>99.22430419921875</v>
       </c>
       <c r="AA25" t="n">
-        <v>17.7124195098877</v>
+        <v>17.26896095275879</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.1109962984919548</v>
+        <v>0.1395261436700821</v>
       </c>
     </row>
     <row r="26">
@@ -2701,28 +2691,28 @@
         <v>10.13162899017334</v>
       </c>
       <c r="U26" t="n">
-        <v>14.84725856781006</v>
+        <v>6.523769855499268</v>
       </c>
       <c r="V26" t="n">
-        <v>0.8716258406639099</v>
+        <v>0.7541236281394958</v>
       </c>
       <c r="W26" t="n">
-        <v>28.01007270812988</v>
+        <v>14.08924102783203</v>
       </c>
       <c r="X26" t="n">
-        <v>2.888192176818848</v>
+        <v>3.501422166824341</v>
       </c>
       <c r="Y26" t="n">
-        <v>2.737391948699951</v>
+        <v>1.952139854431152</v>
       </c>
       <c r="Z26" t="n">
-        <v>30.88881683349609</v>
+        <v>118.8788528442383</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.14818382263184</v>
+        <v>21.02544975280762</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.03526363521814346</v>
+        <v>0.04130689054727554</v>
       </c>
     </row>
     <row r="27">
@@ -2787,28 +2777,28 @@
         <v>10.00367736816406</v>
       </c>
       <c r="U27" t="n">
-        <v>-0.8073238730430603</v>
+        <v>-1.763083934783936</v>
       </c>
       <c r="V27" t="n">
-        <v>1.010463953018188</v>
+        <v>0.7765703201293945</v>
       </c>
       <c r="W27" t="n">
-        <v>24.77120590209961</v>
+        <v>13.57640647888184</v>
       </c>
       <c r="X27" t="n">
-        <v>2.679332971572876</v>
+        <v>3.779866695404053</v>
       </c>
       <c r="Y27" t="n">
-        <v>2.47363805770874</v>
+        <v>1.881388783454895</v>
       </c>
       <c r="Z27" t="n">
-        <v>30.00307846069336</v>
+        <v>73.22207641601562</v>
       </c>
       <c r="AA27" t="n">
-        <v>23.26337623596191</v>
+        <v>23.17676544189453</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.05568010360002518</v>
+        <v>0.05962514132261276</v>
       </c>
     </row>
     <row r="28">
@@ -2873,28 +2863,28 @@
         <v>9.045271873474121</v>
       </c>
       <c r="U28" t="n">
-        <v>8.043868064880371</v>
+        <v>9.84921932220459</v>
       </c>
       <c r="V28" t="n">
-        <v>0.8069413900375366</v>
+        <v>0.7937350869178772</v>
       </c>
       <c r="W28" t="n">
-        <v>25.75631141662598</v>
+        <v>14.87932395935059</v>
       </c>
       <c r="X28" t="n">
-        <v>3.174363374710083</v>
+        <v>4.13121223449707</v>
       </c>
       <c r="Y28" t="n">
-        <v>2.76786470413208</v>
+        <v>2.046265840530396</v>
       </c>
       <c r="Z28" t="n">
-        <v>36.12163543701172</v>
+        <v>23.07114601135254</v>
       </c>
       <c r="AA28" t="n">
-        <v>26.15205955505371</v>
+        <v>26.05930709838867</v>
       </c>
       <c r="AB28" t="n">
-        <v>0.06781844794750214</v>
+        <v>0.07161911576986313</v>
       </c>
     </row>
     <row r="29">
@@ -2959,28 +2949,28 @@
         <v>10.12545013427734</v>
       </c>
       <c r="U29" t="n">
-        <v>7.029592990875244</v>
+        <v>3.846280336380005</v>
       </c>
       <c r="V29" t="n">
-        <v>0.8267104029655457</v>
+        <v>0.7961933016777039</v>
       </c>
       <c r="W29" t="n">
-        <v>27.46412658691406</v>
+        <v>15.66605663299561</v>
       </c>
       <c r="X29" t="n">
-        <v>2.870885610580444</v>
+        <v>4.549752235412598</v>
       </c>
       <c r="Y29" t="n">
-        <v>2.548221826553345</v>
+        <v>2.3599693775177</v>
       </c>
       <c r="Z29" t="n">
-        <v>46.16962051391602</v>
+        <v>20.23793601989746</v>
       </c>
       <c r="AA29" t="n">
-        <v>29.60475158691406</v>
+        <v>29.71337699890137</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.03274997696280479</v>
+        <v>0.03628602251410484</v>
       </c>
     </row>
     <row r="30">
@@ -3045,28 +3035,28 @@
         <v>9.294735908508301</v>
       </c>
       <c r="U30" t="n">
-        <v>3.943975687026978</v>
+        <v>2.188620328903198</v>
       </c>
       <c r="V30" t="n">
-        <v>0.9921704530715942</v>
+        <v>0.7635163068771362</v>
       </c>
       <c r="W30" t="n">
-        <v>28.16018295288086</v>
+        <v>14.9600830078125</v>
       </c>
       <c r="X30" t="n">
-        <v>2.798708200454712</v>
+        <v>4.378190994262695</v>
       </c>
       <c r="Y30" t="n">
-        <v>2.46392035484314</v>
+        <v>2.287992000579834</v>
       </c>
       <c r="Z30" t="n">
-        <v>43.09845352172852</v>
+        <v>18.64804267883301</v>
       </c>
       <c r="AA30" t="n">
-        <v>30.0473518371582</v>
+        <v>29.8396110534668</v>
       </c>
       <c r="AB30" t="n">
-        <v>0.142839103937149</v>
+        <v>0.1368716210126877</v>
       </c>
     </row>
     <row r="31">
@@ -3131,28 +3121,28 @@
         <v>8.03837776184082</v>
       </c>
       <c r="U31" t="n">
-        <v>7.770553112030029</v>
+        <v>-0.811030387878418</v>
       </c>
       <c r="V31" t="n">
-        <v>0.8473734855651855</v>
+        <v>0.8774166703224182</v>
       </c>
       <c r="W31" t="n">
-        <v>27.19506454467773</v>
+        <v>10.90390586853027</v>
       </c>
       <c r="X31" t="n">
-        <v>2.613074064254761</v>
+        <v>3.598735809326172</v>
       </c>
       <c r="Y31" t="n">
-        <v>2.47697114944458</v>
+        <v>1.587752103805542</v>
       </c>
       <c r="Z31" t="n">
-        <v>41.35787582397461</v>
+        <v>52.19770431518555</v>
       </c>
       <c r="AA31" t="n">
-        <v>27.0276050567627</v>
+        <v>26.40788459777832</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.07225575298070908</v>
+        <v>0.05048414319753647</v>
       </c>
     </row>
     <row r="32">
@@ -3217,28 +3207,28 @@
         <v>7.432337760925293</v>
       </c>
       <c r="U32" t="n">
-        <v>-7.120028972625732</v>
+        <v>-6.358582973480225</v>
       </c>
       <c r="V32" t="n">
-        <v>0.8330383896827698</v>
+        <v>0.9482157826423645</v>
       </c>
       <c r="W32" t="n">
-        <v>22.96756744384766</v>
+        <v>9.62952995300293</v>
       </c>
       <c r="X32" t="n">
-        <v>2.332183837890625</v>
+        <v>0.7066728472709656</v>
       </c>
       <c r="Y32" t="n">
-        <v>2.29177188873291</v>
+        <v>0.4548001885414124</v>
       </c>
       <c r="Z32" t="n">
-        <v>40.38209915161133</v>
+        <v>7.510181903839111</v>
       </c>
       <c r="AA32" t="n">
-        <v>26.34686660766602</v>
+        <v>24.22017478942871</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.1186643689870834</v>
+        <v>0.04127726331353188</v>
       </c>
     </row>
     <row r="33">
@@ -3303,28 +3293,28 @@
         <v>8.568087577819824</v>
       </c>
       <c r="U33" t="n">
-        <v>7.468961238861084</v>
+        <v>13.12737941741943</v>
       </c>
       <c r="V33" t="n">
-        <v>0.7854357361793518</v>
+        <v>0.9538432955741882</v>
       </c>
       <c r="W33" t="n">
-        <v>23.2652702331543</v>
+        <v>10.70474815368652</v>
       </c>
       <c r="X33" t="n">
-        <v>2.690513134002686</v>
+        <v>0.8886104822158813</v>
       </c>
       <c r="Y33" t="n">
-        <v>2.29282283782959</v>
+        <v>0.5718915462493896</v>
       </c>
       <c r="Z33" t="n">
-        <v>36.05032730102539</v>
+        <v>9.613563537597656</v>
       </c>
       <c r="AA33" t="n">
-        <v>24.52481269836426</v>
+        <v>23.9707202911377</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.1009225696325302</v>
+        <v>0.08014005422592163</v>
       </c>
     </row>
     <row r="34">
@@ -3389,28 +3379,28 @@
         <v>8.381787300109863</v>
       </c>
       <c r="U34" t="n">
-        <v>6.276125431060791</v>
+        <v>5.43260669708252</v>
       </c>
       <c r="V34" t="n">
-        <v>1.004781603813171</v>
+        <v>0.8433026671409607</v>
       </c>
       <c r="W34" t="n">
-        <v>26.40813827514648</v>
+        <v>9.755792617797852</v>
       </c>
       <c r="X34" t="n">
-        <v>2.744666337966919</v>
+        <v>1.013331294059753</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.444620132446289</v>
+        <v>0.6521593332290649</v>
       </c>
       <c r="Z34" t="n">
-        <v>37.97917556762695</v>
+        <v>10.54626083374023</v>
       </c>
       <c r="AA34" t="n">
-        <v>23.5097713470459</v>
+        <v>22.33301544189453</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.07782115042209625</v>
+        <v>0.134612962603569</v>
       </c>
     </row>
     <row r="35">
@@ -3475,28 +3465,28 @@
         <v>9.680107116699219</v>
       </c>
       <c r="U35" t="n">
-        <v>11.43992900848389</v>
+        <v>0.7161158919334412</v>
       </c>
       <c r="V35" t="n">
-        <v>1.015709638595581</v>
+        <v>0.8088780045509338</v>
       </c>
       <c r="W35" t="n">
-        <v>28.75082015991211</v>
+        <v>13.80143165588379</v>
       </c>
       <c r="X35" t="n">
-        <v>2.956622362136841</v>
+        <v>1.0727778673172</v>
       </c>
       <c r="Y35" t="n">
-        <v>2.800931215286255</v>
+        <v>0.6904178857803345</v>
       </c>
       <c r="Z35" t="n">
-        <v>40.21112060546875</v>
+        <v>7.560861110687256</v>
       </c>
       <c r="AA35" t="n">
-        <v>27.09335517883301</v>
+        <v>26.70798492431641</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.02285521849989891</v>
+        <v>0.008755968883633614</v>
       </c>
     </row>
     <row r="36">
@@ -3561,28 +3551,28 @@
         <v>9.891559600830078</v>
       </c>
       <c r="U36" t="n">
-        <v>5.335855960845947</v>
+        <v>7.758975982666016</v>
       </c>
       <c r="V36" t="n">
-        <v>0.8477092981338501</v>
+        <v>0.8593313097953796</v>
       </c>
       <c r="W36" t="n">
-        <v>30.7586612701416</v>
+        <v>11.93193340301514</v>
       </c>
       <c r="X36" t="n">
-        <v>3.091141223907471</v>
+        <v>3.08182430267334</v>
       </c>
       <c r="Y36" t="n">
-        <v>3.030298948287964</v>
+        <v>0.7524856925010681</v>
       </c>
       <c r="Z36" t="n">
-        <v>42.67475128173828</v>
+        <v>11.99263572692871</v>
       </c>
       <c r="AA36" t="n">
-        <v>28.42088890075684</v>
+        <v>27.79645347595215</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.132924422621727</v>
+        <v>0.158375084400177</v>
       </c>
     </row>
     <row r="37">
@@ -3647,28 +3637,28 @@
         <v>11.66609573364258</v>
       </c>
       <c r="U37" t="n">
-        <v>12.57187843322754</v>
+        <v>6.562609672546387</v>
       </c>
       <c r="V37" t="n">
-        <v>0.9433879852294922</v>
+        <v>0.809213399887085</v>
       </c>
       <c r="W37" t="n">
-        <v>31.55623435974121</v>
+        <v>12.74640655517578</v>
       </c>
       <c r="X37" t="n">
-        <v>3.134927988052368</v>
+        <v>3.487821102142334</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.927675485610962</v>
+        <v>0.6595429182052612</v>
       </c>
       <c r="Z37" t="n">
-        <v>35.80142593383789</v>
+        <v>9.787027359008789</v>
       </c>
       <c r="AA37" t="n">
-        <v>34.5587158203125</v>
+        <v>34.06151962280273</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.007119818590581417</v>
+        <v>0.02182075195014477</v>
       </c>
     </row>
     <row r="38">
@@ -3733,28 +3723,28 @@
         <v>12.21103668212891</v>
       </c>
       <c r="U38" t="n">
-        <v>7.033010959625244</v>
+        <v>5.087360382080078</v>
       </c>
       <c r="V38" t="n">
-        <v>1.251234769821167</v>
+        <v>0.7963297367095947</v>
       </c>
       <c r="W38" t="n">
-        <v>31.27665328979492</v>
+        <v>12.80796051025391</v>
       </c>
       <c r="X38" t="n">
-        <v>3.268260478973389</v>
+        <v>3.474779605865479</v>
       </c>
       <c r="Y38" t="n">
-        <v>3.074214458465576</v>
+        <v>0.6627278923988342</v>
       </c>
       <c r="Z38" t="n">
-        <v>38.87143325805664</v>
+        <v>9.062384605407715</v>
       </c>
       <c r="AA38" t="n">
-        <v>36.87063598632812</v>
+        <v>36.33884811401367</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.003619813127443194</v>
+        <v>0.01830692775547504</v>
       </c>
     </row>
     <row r="39">
@@ -3819,28 +3809,28 @@
         <v>13.65336132049561</v>
       </c>
       <c r="U39" t="n">
-        <v>14.05680274963379</v>
+        <v>6.781067371368408</v>
       </c>
       <c r="V39" t="n">
-        <v>1.232121706008911</v>
+        <v>0.7432903051376343</v>
       </c>
       <c r="W39" t="n">
-        <v>30.81871795654297</v>
+        <v>17.85132026672363</v>
       </c>
       <c r="X39" t="n">
-        <v>3.347018957138062</v>
+        <v>3.682722330093384</v>
       </c>
       <c r="Y39" t="n">
-        <v>3.285037279129028</v>
+        <v>0.7529995441436768</v>
       </c>
       <c r="Z39" t="n">
-        <v>43.48134231567383</v>
+        <v>49.89562606811523</v>
       </c>
       <c r="AA39" t="n">
-        <v>38.79953765869141</v>
+        <v>39.15287780761719</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.04420097172260284</v>
+        <v>0.0347774475812912</v>
       </c>
     </row>
     <row r="40">
@@ -3905,28 +3895,28 @@
         <v>13.32314968109131</v>
       </c>
       <c r="U40" t="n">
-        <v>8.207818984985352</v>
+        <v>11.03407192230225</v>
       </c>
       <c r="V40" t="n">
-        <v>1.759145259857178</v>
+        <v>0.8039179444313049</v>
       </c>
       <c r="W40" t="n">
-        <v>30.89787292480469</v>
+        <v>17.6070384979248</v>
       </c>
       <c r="X40" t="n">
-        <v>3.634853363037109</v>
+        <v>3.736042261123657</v>
       </c>
       <c r="Y40" t="n">
-        <v>3.31850528717041</v>
+        <v>0.9112926721572876</v>
       </c>
       <c r="Z40" t="n">
-        <v>45.07501983642578</v>
+        <v>53.94077301025391</v>
       </c>
       <c r="AA40" t="n">
-        <v>41.87360763549805</v>
+        <v>41.72316741943359</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.03993663191795349</v>
+        <v>0.03647495433688164</v>
       </c>
     </row>
     <row r="41">
@@ -3991,28 +3981,28 @@
         <v>12.76486015319824</v>
       </c>
       <c r="U41" t="n">
-        <v>-2.153877258300781</v>
+        <v>-4.809354305267334</v>
       </c>
       <c r="V41" t="n">
-        <v>1.758500337600708</v>
+        <v>0.8933883905410767</v>
       </c>
       <c r="W41" t="n">
-        <v>29.16123962402344</v>
+        <v>17.18992042541504</v>
       </c>
       <c r="X41" t="n">
-        <v>3.38405179977417</v>
+        <v>3.659193992614746</v>
       </c>
       <c r="Y41" t="n">
-        <v>3.007963180541992</v>
+        <v>0.9086578488349915</v>
       </c>
       <c r="Z41" t="n">
-        <v>39.96976852416992</v>
+        <v>49.56472015380859</v>
       </c>
       <c r="AA41" t="n">
-        <v>41.35363388061523</v>
+        <v>42.46541976928711</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.0734969899058342</v>
+        <v>0.04539179801940918</v>
       </c>
     </row>
     <row r="42">
@@ -4077,28 +4067,28 @@
         <v>12.80656147003174</v>
       </c>
       <c r="U42" t="n">
-        <v>11.06561088562012</v>
+        <v>7.636776924133301</v>
       </c>
       <c r="V42" t="n">
-        <v>1.586530923843384</v>
+        <v>0.8084520697593689</v>
       </c>
       <c r="W42" t="n">
-        <v>29.56970596313477</v>
+        <v>19.00863647460938</v>
       </c>
       <c r="X42" t="n">
-        <v>3.633287906646729</v>
+        <v>3.915783405303955</v>
       </c>
       <c r="Y42" t="n">
-        <v>3.21080470085144</v>
+        <v>0.7925627827644348</v>
       </c>
       <c r="Z42" t="n">
-        <v>42.585693359375</v>
+        <v>51.51197052001953</v>
       </c>
       <c r="AA42" t="n">
-        <v>45.63056945800781</v>
+        <v>46.78415298461914</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.1323873251676559</v>
+        <v>0.1044654026627541</v>
       </c>
     </row>
     <row r="43">
@@ -4163,28 +4153,28 @@
         <v>13.86091613769531</v>
       </c>
       <c r="U43" t="n">
-        <v>-0.9044227600097656</v>
+        <v>-0.3583497703075409</v>
       </c>
       <c r="V43" t="n">
-        <v>1.49983012676239</v>
+        <v>0.8490507006645203</v>
       </c>
       <c r="W43" t="n">
-        <v>26.22524452209473</v>
+        <v>11.78375244140625</v>
       </c>
       <c r="X43" t="n">
-        <v>3.214466571807861</v>
+        <v>5.450209140777588</v>
       </c>
       <c r="Y43" t="n">
-        <v>3.035255670547485</v>
+        <v>0.7287501692771912</v>
       </c>
       <c r="Z43" t="n">
-        <v>40.0185432434082</v>
+        <v>187.5039672851562</v>
       </c>
       <c r="AA43" t="n">
-        <v>53.13984298706055</v>
+        <v>54.22428894042969</v>
       </c>
       <c r="AB43" t="n">
-        <v>0.2336672693490982</v>
+        <v>0.2489933520555496</v>
       </c>
     </row>
     <row r="44">
@@ -4249,28 +4239,28 @@
         <v>9.679657936096191</v>
       </c>
       <c r="U44" t="n">
-        <v>-4.607228755950928</v>
+        <v>-0.986329197883606</v>
       </c>
       <c r="V44" t="n">
-        <v>1.758404731750488</v>
+        <v>0.9335643649101257</v>
       </c>
       <c r="W44" t="n">
-        <v>23.36940956115723</v>
+        <v>11.26713180541992</v>
       </c>
       <c r="X44" t="n">
-        <v>3.009905576705933</v>
+        <v>3.9096360206604</v>
       </c>
       <c r="Y44" t="n">
-        <v>2.739083290100098</v>
+        <v>0.6968004703521729</v>
       </c>
       <c r="Z44" t="n">
-        <v>35.98374938964844</v>
+        <v>129.6869659423828</v>
       </c>
       <c r="AA44" t="n">
-        <v>41.86915588378906</v>
+        <v>40.63965606689453</v>
       </c>
       <c r="AB44" t="n">
-        <v>0.05125144869089127</v>
+        <v>0.08305568993091583</v>
       </c>
     </row>
     <row r="45">
@@ -4335,28 +4325,28 @@
         <v>13.16821479797363</v>
       </c>
       <c r="U45" t="n">
-        <v>22.70649909973145</v>
+        <v>13.70797920227051</v>
       </c>
       <c r="V45" t="n">
-        <v>1.425612211227417</v>
+        <v>0.8051247596740723</v>
       </c>
       <c r="W45" t="n">
-        <v>27.59458160400391</v>
+        <v>11.15317630767822</v>
       </c>
       <c r="X45" t="n">
-        <v>3.432342290878296</v>
+        <v>4.809527397155762</v>
       </c>
       <c r="Y45" t="n">
-        <v>3.229958295822144</v>
+        <v>0.689752995967865</v>
       </c>
       <c r="Z45" t="n">
-        <v>52.36360549926758</v>
+        <v>164.1710052490234</v>
       </c>
       <c r="AA45" t="n">
-        <v>45.69845962524414</v>
+        <v>47.61427307128906</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.03221173956990242</v>
+        <v>0.009320453740656376</v>
       </c>
     </row>
     <row r="46">
@@ -4421,28 +4411,28 @@
         <v>13.92111206054688</v>
       </c>
       <c r="U46" t="n">
-        <v>2.818515062332153</v>
+        <v>3.864147901535034</v>
       </c>
       <c r="V46" t="n">
-        <v>1.890929818153381</v>
+        <v>0.7973578572273254</v>
       </c>
       <c r="W46" t="n">
-        <v>25.36082458496094</v>
+        <v>10.25417232513428</v>
       </c>
       <c r="X46" t="n">
-        <v>3.654677391052246</v>
+        <v>4.863487243652344</v>
       </c>
       <c r="Y46" t="n">
-        <v>3.235750675201416</v>
+        <v>0.6341553926467896</v>
       </c>
       <c r="Z46" t="n">
-        <v>50.04637145996094</v>
+        <v>167.7657165527344</v>
       </c>
       <c r="AA46" t="n">
-        <v>48.95375823974609</v>
+        <v>50.31987380981445</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.0772002711892128</v>
+        <v>0.04795576259493828</v>
       </c>
     </row>
     <row r="47">
@@ -4507,28 +4497,28 @@
         <v>15.84262657165527</v>
       </c>
       <c r="U47" t="n">
-        <v>4.728521347045898</v>
+        <v>2.072830438613892</v>
       </c>
       <c r="V47" t="n">
-        <v>1.169323205947876</v>
+        <v>0.8083735704421997</v>
       </c>
       <c r="W47" t="n">
-        <v>27.30308532714844</v>
+        <v>11.16056442260742</v>
       </c>
       <c r="X47" t="n">
-        <v>3.156193017959595</v>
+        <v>6.473744869232178</v>
       </c>
       <c r="Y47" t="n">
-        <v>3.086779832839966</v>
+        <v>0.6902099251747131</v>
       </c>
       <c r="Z47" t="n">
-        <v>51.09768295288086</v>
+        <v>44.46006393432617</v>
       </c>
       <c r="AA47" t="n">
-        <v>54.98726654052734</v>
+        <v>58.03554153442383</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.2326212376356125</v>
+        <v>0.1678787022829056</v>
       </c>
     </row>
     <row r="48">
@@ -4593,28 +4583,28 @@
         <v>19.2794132232666</v>
       </c>
       <c r="U48" t="n">
-        <v>19.06120491027832</v>
+        <v>9.840782165527344</v>
       </c>
       <c r="V48" t="n">
-        <v>1.289038300514221</v>
+        <v>0.7791401147842407</v>
       </c>
       <c r="W48" t="n">
-        <v>33.20806121826172</v>
+        <v>18.01961517333984</v>
       </c>
       <c r="X48" t="n">
-        <v>3.6585373878479</v>
+        <v>8.233603477478027</v>
       </c>
       <c r="Y48" t="n">
-        <v>3.587593793869019</v>
+        <v>0.6487927436828613</v>
       </c>
       <c r="Z48" t="n">
-        <v>51.57041168212891</v>
+        <v>57.17766571044922</v>
       </c>
       <c r="AA48" t="n">
-        <v>71.67303466796875</v>
+        <v>72.94173431396484</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.04179788008332253</v>
+        <v>0.05846420675516129</v>
       </c>
     </row>
     <row r="49">
@@ -4679,28 +4669,28 @@
         <v>17.05539131164551</v>
       </c>
       <c r="U49" t="n">
-        <v>-0.1048501580953598</v>
+        <v>-5.666102886199951</v>
       </c>
       <c r="V49" t="n">
-        <v>1.692064046859741</v>
+        <v>1.300737619400024</v>
       </c>
       <c r="W49" t="n">
-        <v>29.49152374267578</v>
+        <v>12.29448986053467</v>
       </c>
       <c r="X49" t="n">
-        <v>2.887713193893433</v>
+        <v>7.413591861724854</v>
       </c>
       <c r="Y49" t="n">
-        <v>3.002636909484863</v>
+        <v>0.4426607191562653</v>
       </c>
       <c r="Z49" t="n">
-        <v>21.13530731201172</v>
+        <v>52.38071823120117</v>
       </c>
       <c r="AA49" t="n">
-        <v>73.97392272949219</v>
+        <v>74.51519012451172</v>
       </c>
       <c r="AB49" t="n">
-        <v>0.1305000782012939</v>
+        <v>0.1222882866859436</v>
       </c>
     </row>
     <row r="50">
@@ -4765,28 +4755,28 @@
         <v>20.84390068054199</v>
       </c>
       <c r="U50" t="n">
-        <v>23.68636703491211</v>
+        <v>14.10078620910645</v>
       </c>
       <c r="V50" t="n">
-        <v>2.81559944152832</v>
+        <v>1.151792168617249</v>
       </c>
       <c r="W50" t="n">
-        <v>34.91934204101562</v>
+        <v>11.78204345703125</v>
       </c>
       <c r="X50" t="n">
-        <v>3.397846937179565</v>
+        <v>9.451543807983398</v>
       </c>
       <c r="Y50" t="n">
-        <v>3.966832160949707</v>
+        <v>0.4242101907730103</v>
       </c>
       <c r="Z50" t="n">
-        <v>27.17977142333984</v>
+        <v>67.66866302490234</v>
       </c>
       <c r="AA50" t="n">
-        <v>94.12959289550781</v>
+        <v>93.56651306152344</v>
       </c>
       <c r="AB50" t="n">
-        <v>0.1958991140127182</v>
+        <v>0.2030959874391556</v>
       </c>
     </row>
     <row r="51">
@@ -4851,28 +4841,26 @@
         <v>24.44733619689941</v>
       </c>
       <c r="U51" t="n">
-        <v>11.85088443756104</v>
+        <v>4.296916484832764</v>
       </c>
       <c r="V51" t="n">
-        <v>1.993394255638123</v>
+        <v>0.8388136625289917</v>
       </c>
       <c r="W51" t="n">
-        <v>32.05659484863281</v>
+        <v>10.46029758453369</v>
       </c>
       <c r="X51" t="n">
-        <v>3.504079580307007</v>
+        <v>15.32453727722168</v>
       </c>
       <c r="Y51" t="n">
-        <v>4.058793544769287</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>29.28967666625977</v>
-      </c>
+        <v>0.4156302809715271</v>
+      </c>
+      <c r="Z51" t="inlineStr"/>
       <c r="AA51" t="n">
-        <v>130.7636108398438</v>
+        <v>125.4887390136719</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.06995224952697754</v>
+        <v>0.03085804730653763</v>
       </c>
     </row>
     <row r="52">
@@ -4937,28 +4925,28 @@
         <v>27.16204261779785</v>
       </c>
       <c r="U52" t="n">
-        <v>24.50801086425781</v>
+        <v>19.41018676757812</v>
       </c>
       <c r="V52" t="n">
-        <v>2.122557163238525</v>
+        <v>0.879855215549469</v>
       </c>
       <c r="W52" t="n">
-        <v>37.78001022338867</v>
+        <v>26.40478134155273</v>
       </c>
       <c r="X52" t="n">
-        <v>5.055994033813477</v>
+        <v>18.77703285217285</v>
       </c>
       <c r="Y52" t="n">
-        <v>5.917489528656006</v>
+        <v>0.6265674233436584</v>
       </c>
       <c r="Z52" t="n">
-        <v>42.37991714477539</v>
+        <v>64.51236724853516</v>
       </c>
       <c r="AA52" t="n">
-        <v>144.0603179931641</v>
+        <v>134.0519409179688</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.1280012726783752</v>
+        <v>0.0628974586725235</v>
       </c>
     </row>
     <row r="53">
@@ -5023,28 +5011,28 @@
         <v>22.51763534545898</v>
       </c>
       <c r="U53" t="n">
-        <v>6.808627605438232</v>
+        <v>10.3306131362915</v>
       </c>
       <c r="V53" t="n">
-        <v>3.150119066238403</v>
+        <v>0.8782026171684265</v>
       </c>
       <c r="W53" t="n">
-        <v>39.64900970458984</v>
+        <v>26.9712963104248</v>
       </c>
       <c r="X53" t="n">
-        <v>4.391731262207031</v>
+        <v>17.7128849029541</v>
       </c>
       <c r="Y53" t="n">
-        <v>5.237082481384277</v>
+        <v>0.7787969708442688</v>
       </c>
       <c r="Z53" t="n">
-        <v>29.8941707611084</v>
+        <v>85.00768280029297</v>
       </c>
       <c r="AA53" t="n">
-        <v>140.6154174804688</v>
+        <v>134.6652526855469</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.07162434607744217</v>
+        <v>0.03060420230031013</v>
       </c>
     </row>
     <row r="54">
@@ -5109,28 +5097,28 @@
         <v>23.4570426940918</v>
       </c>
       <c r="U54" t="n">
-        <v>9.621123313903809</v>
+        <v>6.448060512542725</v>
       </c>
       <c r="V54" t="n">
-        <v>3.601846218109131</v>
+        <v>0.7367743849754333</v>
       </c>
       <c r="W54" t="n">
-        <v>31.3809928894043</v>
+        <v>27.12733840942383</v>
       </c>
       <c r="X54" t="n">
-        <v>3.920868635177612</v>
+        <v>19.14916229248047</v>
       </c>
       <c r="Y54" t="n">
-        <v>5.330114364624023</v>
+        <v>0.6940553188323975</v>
       </c>
       <c r="Z54" t="n">
-        <v>25.50041580200195</v>
+        <v>69.34534454345703</v>
       </c>
       <c r="AA54" t="n">
-        <v>134.4169006347656</v>
+        <v>138.9589538574219</v>
       </c>
       <c r="AB54" t="n">
-        <v>0.07351121306419373</v>
+        <v>0.0384221076965332</v>
       </c>
     </row>
     <row r="55">
@@ -5195,28 +5183,28 @@
         <v>24.24121475219727</v>
       </c>
       <c r="U55" t="n">
-        <v>7.373551368713379</v>
+        <v>6.475076675415039</v>
       </c>
       <c r="V55" t="n">
-        <v>2.774009227752686</v>
+        <v>0.6858831644058228</v>
       </c>
       <c r="W55" t="n">
-        <v>32.47748947143555</v>
+        <v>19.38872909545898</v>
       </c>
       <c r="X55" t="n">
-        <v>4.362495899200439</v>
+        <v>20.4392204284668</v>
       </c>
       <c r="Y55" t="n">
-        <v>6.035304546356201</v>
+        <v>0.7155443429946899</v>
       </c>
       <c r="Z55" t="n">
-        <v>25.21538543701172</v>
+        <v>71.37352752685547</v>
       </c>
       <c r="AA55" t="n">
-        <v>139.2351989746094</v>
+        <v>142.4396820068359</v>
       </c>
       <c r="AB55" t="n">
-        <v>0.1630672216415405</v>
+        <v>0.1369015574455261</v>
       </c>
     </row>
     <row r="56">
@@ -5281,28 +5269,26 @@
         <v>23.27337265014648</v>
       </c>
       <c r="U56" t="n">
-        <v>-6.137146949768066</v>
+        <v>-3.449528694152832</v>
       </c>
       <c r="V56" t="n">
-        <v>1.944252490997314</v>
+        <v>0.7817635536193848</v>
       </c>
       <c r="W56" t="n">
-        <v>25.91728782653809</v>
+        <v>5.967109680175781</v>
       </c>
       <c r="X56" t="n">
-        <v>3.537333488464355</v>
+        <v>21.1046314239502</v>
       </c>
       <c r="Y56" t="n">
-        <v>4.341084957122803</v>
-      </c>
-      <c r="Z56" t="n">
-        <v>17.65588760375977</v>
-      </c>
+        <v>0.736009418964386</v>
+      </c>
+      <c r="Z56" t="inlineStr"/>
       <c r="AA56" t="n">
-        <v>151.2369232177734</v>
+        <v>158.5019073486328</v>
       </c>
       <c r="AB56" t="n">
-        <v>0.08671605587005615</v>
+        <v>0.03690608963370323</v>
       </c>
     </row>
     <row r="57">
@@ -5367,28 +5353,26 @@
         <v>22.93743133544922</v>
       </c>
       <c r="U57" t="n">
-        <v>-5.390541076660156</v>
+        <v>0.8672816157341003</v>
       </c>
       <c r="V57" t="n">
-        <v>2.292521238327026</v>
+        <v>0.8842995166778564</v>
       </c>
       <c r="W57" t="n">
-        <v>24.08651161193848</v>
+        <v>6.131307601928711</v>
       </c>
       <c r="X57" t="n">
-        <v>3.449843883514404</v>
+        <v>21.50124168395996</v>
       </c>
       <c r="Y57" t="n">
-        <v>3.545763492584229</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>47.40625762939453</v>
-      </c>
+        <v>0.7346721291542053</v>
+      </c>
+      <c r="Z57" t="inlineStr"/>
       <c r="AA57" t="n">
-        <v>153.3920745849609</v>
+        <v>154.8991241455078</v>
       </c>
       <c r="AB57" t="n">
-        <v>0.0616227313876152</v>
+        <v>0.07075241953134537</v>
       </c>
     </row>
     <row r="58">
@@ -5453,28 +5437,26 @@
         <v>21.54163551330566</v>
       </c>
       <c r="U58" t="n">
-        <v>-0.280524343252182</v>
+        <v>-1.69160258769989</v>
       </c>
       <c r="V58" t="n">
-        <v>1.526926040649414</v>
+        <v>0.8706738948822021</v>
       </c>
       <c r="W58" t="n">
-        <v>21.14840316772461</v>
+        <v>5.338363647460938</v>
       </c>
       <c r="X58" t="n">
-        <v>3.005211353302002</v>
+        <v>20.49870681762695</v>
       </c>
       <c r="Y58" t="n">
-        <v>3.146086454391479</v>
-      </c>
-      <c r="Z58" t="n">
-        <v>43.07963943481445</v>
-      </c>
+        <v>0.6584571003913879</v>
+      </c>
+      <c r="Z58" t="inlineStr"/>
       <c r="AA58" t="n">
-        <v>137.7427062988281</v>
+        <v>148.2535705566406</v>
       </c>
       <c r="AB58" t="n">
-        <v>0.1126019805669785</v>
+        <v>0.03372085466980934</v>
       </c>
     </row>
     <row r="59">
@@ -5539,28 +5521,26 @@
         <v>19.05055999755859</v>
       </c>
       <c r="U59" t="n">
-        <v>-13.92089939117432</v>
+        <v>-2.922786474227905</v>
       </c>
       <c r="V59" t="n">
-        <v>1.647326350212097</v>
+        <v>0.801001250743866</v>
       </c>
       <c r="W59" t="n">
-        <v>18.04933929443359</v>
+        <v>5.28272008895874</v>
       </c>
       <c r="X59" t="n">
-        <v>2.459927797317505</v>
+        <v>23.18272590637207</v>
       </c>
       <c r="Y59" t="n">
-        <v>2.448485612869263</v>
-      </c>
-      <c r="Z59" t="n">
-        <v>36.26430511474609</v>
-      </c>
+        <v>0.651593804359436</v>
+      </c>
+      <c r="Z59" t="inlineStr"/>
       <c r="AA59" t="n">
-        <v>150.9310455322266</v>
+        <v>153.1585235595703</v>
       </c>
       <c r="AB59" t="n">
-        <v>0.07933585345745087</v>
+        <v>0.09272563457489014</v>
       </c>
     </row>
     <row r="60">
@@ -5625,28 +5605,28 @@
         <v>21.97327995300293</v>
       </c>
       <c r="U60" t="n">
-        <v>20.38937187194824</v>
+        <v>11.37853813171387</v>
       </c>
       <c r="V60" t="n">
-        <v>1.596490621566772</v>
+        <v>0.8123655915260315</v>
       </c>
       <c r="W60" t="n">
-        <v>22.43998718261719</v>
+        <v>23.90976142883301</v>
       </c>
       <c r="X60" t="n">
-        <v>2.923040866851807</v>
+        <v>24.08193588256836</v>
       </c>
       <c r="Y60" t="n">
-        <v>3.085860013961792</v>
+        <v>0.7469037771224976</v>
       </c>
       <c r="Z60" t="n">
-        <v>42.14406204223633</v>
+        <v>49.38229751586914</v>
       </c>
       <c r="AA60" t="n">
-        <v>140.4792175292969</v>
+        <v>143.8382720947266</v>
       </c>
       <c r="AB60" t="n">
-        <v>0.1085922867059708</v>
+        <v>0.08270332962274551</v>
       </c>
     </row>
     <row r="61">
@@ -5711,28 +5691,28 @@
         <v>23.93707466125488</v>
       </c>
       <c r="U61" t="n">
-        <v>11.45831680297852</v>
+        <v>1.496578454971313</v>
       </c>
       <c r="V61" t="n">
-        <v>2.074211597442627</v>
+        <v>0.832450807094574</v>
       </c>
       <c r="W61" t="n">
-        <v>20.32717132568359</v>
+        <v>20.54101371765137</v>
       </c>
       <c r="X61" t="n">
-        <v>2.596281290054321</v>
+        <v>26.17958450317383</v>
       </c>
       <c r="Y61" t="n">
-        <v>2.386001348495483</v>
+        <v>0.625687837600708</v>
       </c>
       <c r="Z61" t="n">
-        <v>32.52439880371094</v>
+        <v>41.36798095703125</v>
       </c>
       <c r="AA61" t="n">
-        <v>159.7430419921875</v>
+        <v>161.6695556640625</v>
       </c>
       <c r="AB61" t="n">
-        <v>0.1384408324956894</v>
+        <v>0.1248747557401657</v>
       </c>
     </row>
     <row r="62">
@@ -5797,28 +5777,28 @@
         <v>26.45573616027832</v>
       </c>
       <c r="U62" t="n">
-        <v>22.78320693969727</v>
+        <v>13.30896854400635</v>
       </c>
       <c r="V62" t="n">
-        <v>2.186992406845093</v>
+        <v>0.821942150592804</v>
       </c>
       <c r="W62" t="n">
-        <v>24.15592002868652</v>
+        <v>25.60087585449219</v>
       </c>
       <c r="X62" t="n">
-        <v>2.856737613677979</v>
+        <v>30.05093765258789</v>
       </c>
       <c r="Y62" t="n">
-        <v>2.823376655578613</v>
+        <v>0.779813289642334</v>
       </c>
       <c r="Z62" t="n">
-        <v>38.30396270751953</v>
+        <v>51.55814361572266</v>
       </c>
       <c r="AA62" t="n">
-        <v>189.8167114257812</v>
+        <v>188.3491973876953</v>
       </c>
       <c r="AB62" t="n">
-        <v>0.07394418865442276</v>
+        <v>0.0667288675904274</v>
       </c>
     </row>
     <row r="63">
@@ -5883,28 +5863,28 @@
         <v>24.97873497009277</v>
       </c>
       <c r="U63" t="n">
-        <v>-1.721190929412842</v>
+        <v>-2.76441502571106</v>
       </c>
       <c r="V63" t="n">
-        <v>2.386592388153076</v>
+        <v>0.7757871747016907</v>
       </c>
       <c r="W63" t="n">
-        <v>21.82428932189941</v>
+        <v>9.87751579284668</v>
       </c>
       <c r="X63" t="n">
-        <v>2.336937189102173</v>
+        <v>22.69161415100098</v>
       </c>
       <c r="Y63" t="n">
-        <v>2.148297548294067</v>
+        <v>0.6865271925926208</v>
       </c>
       <c r="Z63" t="n">
-        <v>33.19521331787109</v>
+        <v>392.2871704101562</v>
       </c>
       <c r="AA63" t="n">
-        <v>185.841064453125</v>
+        <v>177.2859649658203</v>
       </c>
       <c r="AB63" t="n">
-        <v>0.01045759674161673</v>
+        <v>0.05921816825866699</v>
       </c>
     </row>
     <row r="64">
@@ -5969,28 +5949,28 @@
         <v>24.81435585021973</v>
       </c>
       <c r="U64" t="n">
-        <v>23.02527236938477</v>
+        <v>18.0836238861084</v>
       </c>
       <c r="V64" t="n">
-        <v>3.250055074691772</v>
+        <v>0.8318093419075012</v>
       </c>
       <c r="W64" t="n">
-        <v>26.38553047180176</v>
+        <v>9.859402656555176</v>
       </c>
       <c r="X64" t="n">
-        <v>2.71099853515625</v>
+        <v>23.6865291595459</v>
       </c>
       <c r="Y64" t="n">
-        <v>2.748414993286133</v>
+        <v>0.685268223285675</v>
       </c>
       <c r="Z64" t="n">
-        <v>41.84625625610352</v>
+        <v>413.5919494628906</v>
       </c>
       <c r="AA64" t="n">
-        <v>202.255126953125</v>
+        <v>191.1362915039062</v>
       </c>
       <c r="AB64" t="n">
-        <v>0.1376216560602188</v>
+        <v>0.0874551385641098</v>
       </c>
     </row>
     <row r="65">
@@ -6055,28 +6035,28 @@
         <v>24.16639137268066</v>
       </c>
       <c r="U65" t="n">
-        <v>8.662229537963867</v>
+        <v>6.8895263671875</v>
       </c>
       <c r="V65" t="n">
-        <v>7.137001514434814</v>
+        <v>0.8812523484230042</v>
       </c>
       <c r="W65" t="n">
-        <v>26.55577278137207</v>
+        <v>10.59552574157715</v>
       </c>
       <c r="X65" t="n">
-        <v>2.540561676025391</v>
+        <v>21.85342597961426</v>
       </c>
       <c r="Y65" t="n">
-        <v>2.750647783279419</v>
+        <v>0.7364317774772644</v>
       </c>
       <c r="Z65" t="n">
-        <v>33.70637893676758</v>
+        <v>387.4493103027344</v>
       </c>
       <c r="AA65" t="n">
-        <v>182.8037261962891</v>
+        <v>178.7098541259766</v>
       </c>
       <c r="AB65" t="n">
-        <v>0.1208904683589935</v>
+        <v>0.1465677469968796</v>
       </c>
     </row>
     <row r="66">
@@ -6141,28 +6121,28 @@
         <v>29.4046630859375</v>
       </c>
       <c r="U66" t="n">
-        <v>14.54848861694336</v>
+        <v>10.22207355499268</v>
       </c>
       <c r="V66" t="n">
-        <v>3.358586072921753</v>
+        <v>0.8334043025970459</v>
       </c>
       <c r="W66" t="n">
-        <v>30.70771217346191</v>
+        <v>12.2300443649292</v>
       </c>
       <c r="X66" t="n">
-        <v>2.624993324279785</v>
+        <v>27.29569053649902</v>
       </c>
       <c r="Y66" t="n">
-        <v>2.866848945617676</v>
+        <v>0.8500373959541321</v>
       </c>
       <c r="Z66" t="n">
-        <v>34.78760147094727</v>
+        <v>482.9851379394531</v>
       </c>
       <c r="AA66" t="n">
-        <v>211.0220947265625</v>
+        <v>216.4883422851562</v>
       </c>
       <c r="AB66" t="n">
-        <v>0.06340476870536804</v>
+        <v>0.03655420243740082</v>
       </c>
     </row>
     <row r="67">
@@ -6227,28 +6207,28 @@
         <v>28.8787956237793</v>
       </c>
       <c r="U67" t="n">
-        <v>3.618277788162231</v>
+        <v>5.12123966217041</v>
       </c>
       <c r="V67" t="n">
-        <v>4.871565818786621</v>
+        <v>0.7831464409828186</v>
       </c>
       <c r="W67" t="n">
-        <v>25.83989334106445</v>
+        <v>12.01920032501221</v>
       </c>
       <c r="X67" t="n">
-        <v>2.643310785293579</v>
+        <v>30.4844970703125</v>
       </c>
       <c r="Y67" t="n">
-        <v>2.786140203475952</v>
+        <v>0.8297695517539978</v>
       </c>
       <c r="Z67" t="n">
-        <v>38.22232437133789</v>
+        <v>795.3134155273438</v>
       </c>
       <c r="AA67" t="n">
-        <v>221.7146606445312</v>
+        <v>229.8122253417969</v>
       </c>
       <c r="AB67" t="n">
-        <v>0.06695041060447693</v>
+        <v>0.02935580350458622</v>
       </c>
     </row>
     <row r="68">
@@ -6313,28 +6293,28 @@
         <v>32.99211883544922</v>
       </c>
       <c r="U68" t="n">
-        <v>4.902134895324707</v>
+        <v>7.118225574493408</v>
       </c>
       <c r="V68" t="n">
-        <v>7.408807754516602</v>
+        <v>0.8584344387054443</v>
       </c>
       <c r="W68" t="n">
-        <v>29.46272277832031</v>
+        <v>11.0846004486084</v>
       </c>
       <c r="X68" t="n">
-        <v>3.019292116165161</v>
+        <v>31.89599800109863</v>
       </c>
       <c r="Y68" t="n">
-        <v>3.175325870513916</v>
+        <v>0.9236553311347961</v>
       </c>
       <c r="Z68" t="n">
-        <v>42.68400192260742</v>
+        <v>733.6974487304688</v>
       </c>
       <c r="AA68" t="n">
-        <v>233.576904296875</v>
+        <v>245.1377716064453</v>
       </c>
       <c r="AB68" t="n">
-        <v>0.05557074025273323</v>
+        <v>0.1001106798648834</v>
       </c>
     </row>
     <row r="69">
@@ -6399,28 +6379,28 @@
         <v>29.24995994567871</v>
       </c>
       <c r="U69" t="n">
-        <v>-9.556231498718262</v>
+        <v>-5.468037128448486</v>
       </c>
       <c r="V69" t="n">
-        <v>7.592160224914551</v>
+        <v>1.075452089309692</v>
       </c>
       <c r="W69" t="n">
-        <v>25.11577987670898</v>
+        <v>8.618875503540039</v>
       </c>
       <c r="X69" t="n">
-        <v>3.877710819244385</v>
+        <v>28.40633583068848</v>
       </c>
       <c r="Y69" t="n">
-        <v>4.874722480773926</v>
+        <v>0.7140939831733704</v>
       </c>
       <c r="Z69" t="n">
-        <v>65.2476806640625</v>
+        <v>570.4835205078125</v>
       </c>
       <c r="AA69" t="n">
-        <v>222.5919189453125</v>
+        <v>237.3887481689453</v>
       </c>
       <c r="AB69" t="n">
-        <v>0.07660429924726486</v>
+        <v>0.1341610699892044</v>
       </c>
     </row>
     <row r="70">
@@ -6470,7 +6450,7 @@
         <v>10.94755268096924</v>
       </c>
       <c r="P70" t="n">
-        <v>0.3594817817211151</v>
+        <v>0.3595400452613831</v>
       </c>
       <c r="Q70" t="n">
         <v>31.54419708251953</v>
@@ -6485,25 +6465,25 @@
         <v>28.29812431335449</v>
       </c>
       <c r="U70" t="n">
-        <v>32.98785400390625</v>
+        <v>18.82626914978027</v>
       </c>
       <c r="V70" t="n">
-        <v>7.596736431121826</v>
+        <v>0.9875509738922119</v>
       </c>
       <c r="W70" t="n">
-        <v>26.74876403808594</v>
+        <v>10.58166313171387</v>
       </c>
       <c r="X70" t="n">
-        <v>5.164999485015869</v>
+        <v>27.59479904174805</v>
       </c>
       <c r="Y70" t="n">
-        <v>5.988396644592285</v>
+        <v>0.9058356285095215</v>
       </c>
       <c r="Z70" t="n">
-        <v>113.4768142700195</v>
+        <v>555.7537231445312</v>
       </c>
       <c r="AA70" t="n">
-        <v>210.2480773925781</v>
+        <v>213.2799530029297</v>
       </c>
       <c r="AB70" t="inlineStr"/>
     </row>
